--- a/Education_final.xlsx
+++ b/Education_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD55122D-D537-417E-88D4-F2AEDA961DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2568A5-A6BF-41B6-A95B-AF823CCC3003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,12 +127,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Level of Education</t>
-  </si>
-  <si>
-    <t>Educational attainment level</t>
-  </si>
-  <si>
     <t>Upper secondary and post-secondary non-tertiary education (levels 3 and 4)</t>
   </si>
   <si>
@@ -146,6 +140,12 @@
   </si>
   <si>
     <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Level_Education</t>
+  </si>
+  <si>
+    <t>Educational_Attainment_Level</t>
   </si>
 </sst>
 </file>
@@ -682,9 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A531" sqref="A531"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -697,16 +695,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -781,7 +779,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="19">
         <v>2020</v>
@@ -795,7 +793,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="19">
         <v>2020</v>
@@ -1269,7 +1267,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="19">
         <v>2019</v>
@@ -1283,7 +1281,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" s="19">
         <v>2019</v>
@@ -1759,7 +1757,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B77" s="19">
         <v>2018</v>
@@ -1773,7 +1771,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" s="19">
         <v>2018</v>
@@ -2249,7 +2247,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B112" s="19">
         <v>2017</v>
@@ -2263,7 +2261,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B113" s="19">
         <v>2017</v>
@@ -2739,7 +2737,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B147" s="19">
         <v>2016</v>
@@ -2753,7 +2751,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B148" s="19">
         <v>2016</v>
@@ -3165,7 +3163,7 @@
         <v>2020</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D177" s="10">
         <v>50</v>
@@ -3179,7 +3177,7 @@
         <v>2020</v>
       </c>
       <c r="C178" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D178" s="10">
         <v>37.4</v>
@@ -3193,7 +3191,7 @@
         <v>2020</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D179" s="10">
         <v>52.9</v>
@@ -3207,7 +3205,7 @@
         <v>2020</v>
       </c>
       <c r="C180" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D180" s="10">
         <v>44.5</v>
@@ -3221,7 +3219,7 @@
         <v>2020</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D181" s="10">
         <v>38.799999999999997</v>
@@ -3229,13 +3227,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B182" s="19">
         <v>2020</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D182" s="10">
         <v>65.599999999999994</v>
@@ -3243,13 +3241,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B183" s="19">
         <v>2020</v>
       </c>
       <c r="C183" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D183" s="10">
         <v>52.7</v>
@@ -3263,7 +3261,7 @@
         <v>2020</v>
       </c>
       <c r="C184" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D184" s="10">
         <v>40.4</v>
@@ -3277,7 +3275,7 @@
         <v>2020</v>
       </c>
       <c r="C185" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D185" s="10">
         <v>47.6</v>
@@ -3291,7 +3289,7 @@
         <v>2020</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D186" s="10">
         <v>47.2</v>
@@ -3305,7 +3303,7 @@
         <v>2020</v>
       </c>
       <c r="C187" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D187" s="10">
         <v>25.8</v>
@@ -3319,7 +3317,7 @@
         <v>2020</v>
       </c>
       <c r="C188" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D188" s="10">
         <v>44.2</v>
@@ -3333,7 +3331,7 @@
         <v>2020</v>
       </c>
       <c r="C189" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D189" s="10">
         <v>42.4</v>
@@ -3347,7 +3345,7 @@
         <v>2020</v>
       </c>
       <c r="C190" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D190" s="10">
         <v>60.5</v>
@@ -3361,7 +3359,7 @@
         <v>2020</v>
       </c>
       <c r="C191" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D191" s="10">
         <v>56.7</v>
@@ -3375,7 +3373,7 @@
         <v>2020</v>
       </c>
       <c r="C192" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D192" s="10">
         <v>37.6</v>
@@ -3389,7 +3387,7 @@
         <v>2020</v>
       </c>
       <c r="C193" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D193" s="10">
         <v>35.6</v>
@@ -3403,7 +3401,7 @@
         <v>2020</v>
       </c>
       <c r="C194" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D194" s="10">
         <v>43.1</v>
@@ -3417,7 +3415,7 @@
         <v>2020</v>
       </c>
       <c r="C195" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D195" s="10">
         <v>50.5</v>
@@ -3431,7 +3429,7 @@
         <v>2020</v>
       </c>
       <c r="C196" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D196" s="10">
         <v>31.9</v>
@@ -3445,7 +3443,7 @@
         <v>2020</v>
       </c>
       <c r="C197" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D197" s="10">
         <v>52.2</v>
@@ -3459,7 +3457,7 @@
         <v>2020</v>
       </c>
       <c r="C198" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D198" s="10">
         <v>60.3</v>
@@ -3473,7 +3471,7 @@
         <v>2020</v>
       </c>
       <c r="C199" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D199" s="10">
         <v>50.3</v>
@@ -3487,7 +3485,7 @@
         <v>2020</v>
       </c>
       <c r="C200" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D200" s="10">
         <v>34.9</v>
@@ -3501,7 +3499,7 @@
         <v>2020</v>
       </c>
       <c r="C201" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D201" s="10">
         <v>39.4</v>
@@ -3515,7 +3513,7 @@
         <v>2020</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D202" s="10">
         <v>37.700000000000003</v>
@@ -3529,7 +3527,7 @@
         <v>2020</v>
       </c>
       <c r="C203" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D203" s="10">
         <v>58.1</v>
@@ -3543,7 +3541,7 @@
         <v>2020</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D204" s="10">
         <v>30.2</v>
@@ -3557,7 +3555,7 @@
         <v>2020</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D205" s="10">
         <v>60.1</v>
@@ -3571,7 +3569,7 @@
         <v>2020</v>
       </c>
       <c r="C206" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D206" s="10">
         <v>57.7</v>
@@ -3585,7 +3583,7 @@
         <v>2020</v>
       </c>
       <c r="C207" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D207" s="10">
         <v>41.1</v>
@@ -3599,7 +3597,7 @@
         <v>2020</v>
       </c>
       <c r="C208" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D208" s="10">
         <v>54</v>
@@ -3613,7 +3611,7 @@
         <v>2020</v>
       </c>
       <c r="C209" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D209" s="10">
         <v>62.6</v>
@@ -3627,7 +3625,7 @@
         <v>2020</v>
       </c>
       <c r="C210" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D210" s="10">
         <v>21.7</v>
@@ -3641,7 +3639,7 @@
         <v>2020</v>
       </c>
       <c r="C211" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D211" s="9"/>
     </row>
@@ -3653,7 +3651,7 @@
         <v>2019</v>
       </c>
       <c r="C212" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D212" s="10">
         <v>50.2</v>
@@ -3667,7 +3665,7 @@
         <v>2019</v>
       </c>
       <c r="C213" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D213" s="10">
         <v>38.1</v>
@@ -3681,7 +3679,7 @@
         <v>2019</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D214" s="10">
         <v>53.5</v>
@@ -3695,7 +3693,7 @@
         <v>2019</v>
       </c>
       <c r="C215" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D215" s="10">
         <v>44.9</v>
@@ -3709,7 +3707,7 @@
         <v>2019</v>
       </c>
       <c r="C216" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D216" s="10">
         <v>38.5</v>
@@ -3717,13 +3715,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B217" s="19">
         <v>2019</v>
       </c>
       <c r="C217" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D217" s="10">
         <v>66.099999999999994</v>
@@ -3731,13 +3729,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B218" s="19">
         <v>2019</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D218" s="10">
         <v>54.5</v>
@@ -3751,7 +3749,7 @@
         <v>2019</v>
       </c>
       <c r="C219" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D219" s="10">
         <v>40.6</v>
@@ -3765,7 +3763,7 @@
         <v>2019</v>
       </c>
       <c r="C220" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D220" s="10">
         <v>47.7</v>
@@ -3779,7 +3777,7 @@
         <v>2019</v>
       </c>
       <c r="C221" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D221" s="10">
         <v>46.3</v>
@@ -3793,7 +3791,7 @@
         <v>2019</v>
       </c>
       <c r="C222" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D222" s="10">
         <v>25.3</v>
@@ -3807,7 +3805,7 @@
         <v>2019</v>
       </c>
       <c r="C223" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D223" s="10">
         <v>44.6</v>
@@ -3821,7 +3819,7 @@
         <v>2019</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D224" s="10">
         <v>42.8</v>
@@ -3835,7 +3833,7 @@
         <v>2019</v>
       </c>
       <c r="C225" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D225" s="10">
         <v>59.9</v>
@@ -3849,7 +3847,7 @@
         <v>2019</v>
       </c>
       <c r="C226" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D226" s="10">
         <v>57.6</v>
@@ -3863,7 +3861,7 @@
         <v>2019</v>
       </c>
       <c r="C227" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D227" s="10">
         <v>38.299999999999997</v>
@@ -3877,7 +3875,7 @@
         <v>2019</v>
       </c>
       <c r="C228" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D228" s="10">
         <v>34.6</v>
@@ -3891,7 +3889,7 @@
         <v>2019</v>
       </c>
       <c r="C229" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D229" s="10">
         <v>42.8</v>
@@ -3905,7 +3903,7 @@
         <v>2019</v>
       </c>
       <c r="C230" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D230" s="10">
         <v>51</v>
@@ -3919,7 +3917,7 @@
         <v>2019</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D231" s="10">
         <v>32.299999999999997</v>
@@ -3933,7 +3931,7 @@
         <v>2019</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D232" s="10">
         <v>53.8</v>
@@ -3947,7 +3945,7 @@
         <v>2019</v>
       </c>
       <c r="C233" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D233" s="10">
         <v>60.7</v>
@@ -3961,7 +3959,7 @@
         <v>2019</v>
       </c>
       <c r="C234" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D234" s="10">
         <v>51</v>
@@ -3975,7 +3973,7 @@
         <v>2019</v>
       </c>
       <c r="C235" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D235" s="10">
         <v>34.200000000000003</v>
@@ -3989,7 +3987,7 @@
         <v>2019</v>
       </c>
       <c r="C236" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D236" s="10">
         <v>39.700000000000003</v>
@@ -4003,7 +4001,7 @@
         <v>2019</v>
       </c>
       <c r="C237" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D237" s="10">
         <v>38.6</v>
@@ -4017,7 +4015,7 @@
         <v>2019</v>
       </c>
       <c r="C238" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D238" s="10">
         <v>58.5</v>
@@ -4031,7 +4029,7 @@
         <v>2019</v>
       </c>
       <c r="C239" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D239" s="10">
         <v>28.7</v>
@@ -4045,7 +4043,7 @@
         <v>2019</v>
       </c>
       <c r="C240" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D240" s="10">
         <v>58.9</v>
@@ -4059,7 +4057,7 @@
         <v>2019</v>
       </c>
       <c r="C241" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D241" s="10">
         <v>57.3</v>
@@ -4073,7 +4071,7 @@
         <v>2019</v>
       </c>
       <c r="C242" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D242" s="10">
         <v>41.5</v>
@@ -4087,7 +4085,7 @@
         <v>2019</v>
       </c>
       <c r="C243" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D243" s="10">
         <v>54.9</v>
@@ -4101,7 +4099,7 @@
         <v>2019</v>
       </c>
       <c r="C244" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D244" s="10">
         <v>62.3</v>
@@ -4115,7 +4113,7 @@
         <v>2019</v>
       </c>
       <c r="C245" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D245" s="10">
         <v>21.1</v>
@@ -4129,7 +4127,7 @@
         <v>2019</v>
       </c>
       <c r="C246" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D246" s="10">
         <v>40.200000000000003</v>
@@ -4143,7 +4141,7 @@
         <v>2018</v>
       </c>
       <c r="C247" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D247" s="10">
         <v>51</v>
@@ -4157,7 +4155,7 @@
         <v>2018</v>
       </c>
       <c r="C248" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D248" s="10">
         <v>37.700000000000003</v>
@@ -4171,7 +4169,7 @@
         <v>2018</v>
       </c>
       <c r="C249" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D249" s="10">
         <v>53.6</v>
@@ -4185,7 +4183,7 @@
         <v>2018</v>
       </c>
       <c r="C250" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D250" s="10">
         <v>45</v>
@@ -4199,7 +4197,7 @@
         <v>2018</v>
       </c>
       <c r="C251" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D251" s="10">
         <v>38.700000000000003</v>
@@ -4207,13 +4205,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B252" s="12">
         <v>2018</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D252" s="10">
         <v>66.2</v>
@@ -4221,13 +4219,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B253" s="12">
         <v>2018</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D253" s="10">
         <v>55.2</v>
@@ -4241,7 +4239,7 @@
         <v>2018</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D254" s="10">
         <v>40.9</v>
@@ -4255,7 +4253,7 @@
         <v>2018</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D255" s="10">
         <v>47.3</v>
@@ -4269,7 +4267,7 @@
         <v>2018</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D256" s="10">
         <v>43.6</v>
@@ -4283,7 +4281,7 @@
         <v>2018</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D257" s="10">
         <v>25.2</v>
@@ -4297,7 +4295,7 @@
         <v>2018</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D258" s="10">
         <v>45.1</v>
@@ -4311,7 +4309,7 @@
         <v>2018</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D259" s="10">
         <v>42.8</v>
@@ -4325,7 +4323,7 @@
         <v>2018</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D260" s="10">
         <v>59.3</v>
@@ -4339,7 +4337,7 @@
         <v>2018</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D261" s="10">
         <v>58.1</v>
@@ -4353,7 +4351,7 @@
         <v>2018</v>
       </c>
       <c r="C262" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D262" s="10">
         <v>38</v>
@@ -4367,7 +4365,7 @@
         <v>2018</v>
       </c>
       <c r="C263" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D263" s="10">
         <v>34.5</v>
@@ -4381,7 +4379,7 @@
         <v>2018</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D264" s="10">
         <v>42.6</v>
@@ -4395,7 +4393,7 @@
         <v>2018</v>
       </c>
       <c r="C265" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D265" s="10">
         <v>52.3</v>
@@ -4409,7 +4407,7 @@
         <v>2018</v>
       </c>
       <c r="C266" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D266" s="10">
         <v>34.200000000000003</v>
@@ -4423,7 +4421,7 @@
         <v>2018</v>
       </c>
       <c r="C267" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D267" s="10">
         <v>54.7</v>
@@ -4437,7 +4435,7 @@
         <v>2018</v>
       </c>
       <c r="C268" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D268" s="10">
         <v>61.1</v>
@@ -4451,7 +4449,7 @@
         <v>2018</v>
       </c>
       <c r="C269" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D269" s="10">
         <v>50.9</v>
@@ -4465,7 +4463,7 @@
         <v>2018</v>
       </c>
       <c r="C270" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D270" s="10">
         <v>34.4</v>
@@ -4479,7 +4477,7 @@
         <v>2018</v>
       </c>
       <c r="C271" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D271" s="10">
         <v>40.9</v>
@@ -4493,7 +4491,7 @@
         <v>2018</v>
       </c>
       <c r="C272" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D272" s="10">
         <v>38.6</v>
@@ -4507,7 +4505,7 @@
         <v>2018</v>
       </c>
       <c r="C273" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D273" s="10">
         <v>59.3</v>
@@ -4521,7 +4519,7 @@
         <v>2018</v>
       </c>
       <c r="C274" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D274" s="10">
         <v>27.6</v>
@@ -4535,7 +4533,7 @@
         <v>2018</v>
       </c>
       <c r="C275" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D275" s="10">
         <v>58.2</v>
@@ -4549,7 +4547,7 @@
         <v>2018</v>
       </c>
       <c r="C276" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D276" s="10">
         <v>57.1</v>
@@ -4563,7 +4561,7 @@
         <v>2018</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D277" s="10">
         <v>42</v>
@@ -4577,7 +4575,7 @@
         <v>2018</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D278" s="10">
         <v>54.9</v>
@@ -4591,7 +4589,7 @@
         <v>2018</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D279" s="10">
         <v>63.6</v>
@@ -4605,7 +4603,7 @@
         <v>2018</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D280" s="10">
         <v>20.399999999999999</v>
@@ -4619,7 +4617,7 @@
         <v>2018</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D281" s="10">
         <v>41</v>
@@ -4633,7 +4631,7 @@
         <v>2017</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D282" s="10">
         <v>51</v>
@@ -4647,7 +4645,7 @@
         <v>2017</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D283" s="10">
         <v>37.1</v>
@@ -4661,7 +4659,7 @@
         <v>2017</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D284" s="10">
         <v>54.1</v>
@@ -4675,7 +4673,7 @@
         <v>2017</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D285" s="10">
         <v>45.5</v>
@@ -4689,7 +4687,7 @@
         <v>2017</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D286" s="10">
         <v>39</v>
@@ -4697,13 +4695,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B287" s="12">
         <v>2017</v>
       </c>
       <c r="C287" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D287" s="10">
         <v>66.5</v>
@@ -4711,13 +4709,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B288" s="12">
         <v>2017</v>
       </c>
       <c r="C288" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D288" s="10">
         <v>55.4</v>
@@ -4731,7 +4729,7 @@
         <v>2017</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D289" s="10">
         <v>41.1</v>
@@ -4745,7 +4743,7 @@
         <v>2017</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D290" s="10">
         <v>48.4</v>
@@ -4759,7 +4757,7 @@
         <v>2017</v>
       </c>
       <c r="C291" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D291" s="10">
         <v>43.6</v>
@@ -4773,7 +4771,7 @@
         <v>2017</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D292" s="10">
         <v>24.9</v>
@@ -4787,7 +4785,7 @@
         <v>2017</v>
       </c>
       <c r="C293" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D293" s="10">
         <v>45.2</v>
@@ -4801,7 +4799,7 @@
         <v>2017</v>
       </c>
       <c r="C294" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D294" s="10">
         <v>43.3</v>
@@ -4815,7 +4813,7 @@
         <v>2017</v>
       </c>
       <c r="C295" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D295" s="10">
         <v>59.6</v>
@@ -4829,7 +4827,7 @@
         <v>2017</v>
       </c>
       <c r="C296" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D296" s="10">
         <v>58</v>
@@ -4843,7 +4841,7 @@
         <v>2017</v>
       </c>
       <c r="C297" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D297" s="10">
         <v>37.799999999999997</v>
@@ -4857,7 +4855,7 @@
         <v>2017</v>
       </c>
       <c r="C298" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D298" s="10">
         <v>35</v>
@@ -4871,7 +4869,7 @@
         <v>2017</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D299" s="10">
         <v>42.6</v>
@@ -4885,7 +4883,7 @@
         <v>2017</v>
       </c>
       <c r="C300" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D300" s="10">
         <v>53.2</v>
@@ -4899,7 +4897,7 @@
         <v>2017</v>
       </c>
       <c r="C301" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D301" s="10">
         <v>35.4</v>
@@ -4913,7 +4911,7 @@
         <v>2017</v>
       </c>
       <c r="C302" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D302" s="10">
         <v>54.8</v>
@@ -4927,7 +4925,7 @@
         <v>2017</v>
       </c>
       <c r="C303" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D303" s="10">
         <v>60</v>
@@ -4941,7 +4939,7 @@
         <v>2017</v>
       </c>
       <c r="C304" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D304" s="10">
         <v>50.1</v>
@@ -4955,7 +4953,7 @@
         <v>2017</v>
       </c>
       <c r="C305" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D305" s="10">
         <v>33.700000000000003</v>
@@ -4969,7 +4967,7 @@
         <v>2017</v>
       </c>
       <c r="C306" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D306" s="10">
         <v>41.3</v>
@@ -4983,7 +4981,7 @@
         <v>2017</v>
       </c>
       <c r="C307" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D307" s="10">
         <v>38.299999999999997</v>
@@ -4997,7 +4995,7 @@
         <v>2017</v>
       </c>
       <c r="C308" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D308" s="10">
         <v>59.8</v>
@@ -5011,7 +5009,7 @@
         <v>2017</v>
       </c>
       <c r="C309" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D309" s="10">
         <v>26.6</v>
@@ -5025,7 +5023,7 @@
         <v>2017</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D310" s="10">
         <v>57.7</v>
@@ -5039,7 +5037,7 @@
         <v>2017</v>
       </c>
       <c r="C311" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D311" s="10">
         <v>57.2</v>
@@ -5053,7 +5051,7 @@
         <v>2017</v>
       </c>
       <c r="C312" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D312" s="10">
         <v>42.9</v>
@@ -5067,7 +5065,7 @@
         <v>2017</v>
       </c>
       <c r="C313" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D313" s="10">
         <v>54.6</v>
@@ -5081,7 +5079,7 @@
         <v>2017</v>
       </c>
       <c r="C314" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D314" s="10">
         <v>64.5</v>
@@ -5095,7 +5093,7 @@
         <v>2017</v>
       </c>
       <c r="C315" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D315" s="10">
         <v>20</v>
@@ -5109,7 +5107,7 @@
         <v>2017</v>
       </c>
       <c r="C316" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D316" s="10">
         <v>41.3</v>
@@ -5123,7 +5121,7 @@
         <v>2016</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D317" s="10">
         <v>51.5</v>
@@ -5137,7 +5135,7 @@
         <v>2016</v>
       </c>
       <c r="C318" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D318" s="10">
         <v>38.6</v>
@@ -5151,7 +5149,7 @@
         <v>2016</v>
       </c>
       <c r="C319" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D319" s="10">
         <v>53.7</v>
@@ -5165,7 +5163,7 @@
         <v>2016</v>
       </c>
       <c r="C320" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D320" s="10">
         <v>46.3</v>
@@ -5179,7 +5177,7 @@
         <v>2016</v>
       </c>
       <c r="C321" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D321" s="10">
         <v>38.299999999999997</v>
@@ -5187,13 +5185,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B322" s="12">
         <v>2016</v>
       </c>
       <c r="C322" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D322" s="10">
         <v>67.099999999999994</v>
@@ -5201,13 +5199,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B323" s="12">
         <v>2016</v>
       </c>
       <c r="C323" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D323" s="10">
         <v>55.7</v>
@@ -5221,7 +5219,7 @@
         <v>2016</v>
       </c>
       <c r="C324" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D324" s="10">
         <v>41.6</v>
@@ -5235,7 +5233,7 @@
         <v>2016</v>
       </c>
       <c r="C325" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D325" s="10">
         <v>49.3</v>
@@ -5249,7 +5247,7 @@
         <v>2016</v>
       </c>
       <c r="C326" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D326" s="10">
         <v>43.5</v>
@@ -5263,7 +5261,7 @@
         <v>2016</v>
       </c>
       <c r="C327" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D327" s="10">
         <v>24.7</v>
@@ -5277,7 +5275,7 @@
         <v>2016</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D328" s="10">
         <v>45.5</v>
@@ -5291,7 +5289,7 @@
         <v>2016</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D329" s="10">
         <v>43.6</v>
@@ -5305,7 +5303,7 @@
         <v>2016</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D330" s="10">
         <v>59.4</v>
@@ -5319,7 +5317,7 @@
         <v>2016</v>
       </c>
       <c r="C331" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D331" s="10">
         <v>57.6</v>
@@ -5333,7 +5331,7 @@
         <v>2016</v>
       </c>
       <c r="C332" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D332" s="10">
         <v>37.6</v>
@@ -5347,7 +5345,7 @@
         <v>2016</v>
       </c>
       <c r="C333" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D333" s="10">
         <v>37.4</v>
@@ -5361,7 +5359,7 @@
         <v>2016</v>
       </c>
       <c r="C334" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D334" s="10">
         <v>42.7</v>
@@ -5375,7 +5373,7 @@
         <v>2016</v>
       </c>
       <c r="C335" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D335" s="10">
         <v>53.5</v>
@@ -5389,7 +5387,7 @@
         <v>2016</v>
       </c>
       <c r="C336" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D336" s="10">
         <v>35.4</v>
@@ -5403,7 +5401,7 @@
         <v>2016</v>
       </c>
       <c r="C337" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D337" s="10">
         <v>55.6</v>
@@ -5417,7 +5415,7 @@
         <v>2016</v>
       </c>
       <c r="C338" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D338" s="10">
         <v>59.2</v>
@@ -5431,7 +5429,7 @@
         <v>2016</v>
       </c>
       <c r="C339" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D339" s="10">
         <v>48.6</v>
@@ -5445,7 +5443,7 @@
         <v>2016</v>
       </c>
       <c r="C340" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D340" s="10">
         <v>33.299999999999997</v>
@@ -5459,7 +5457,7 @@
         <v>2016</v>
       </c>
       <c r="C341" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D341" s="10">
         <v>41.1</v>
@@ -5473,7 +5471,7 @@
         <v>2016</v>
       </c>
       <c r="C342" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D342" s="10">
         <v>38.299999999999997</v>
@@ -5487,7 +5485,7 @@
         <v>2016</v>
       </c>
       <c r="C343" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D343" s="10">
         <v>60.2</v>
@@ -5501,7 +5499,7 @@
         <v>2016</v>
       </c>
       <c r="C344" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D344" s="10">
         <v>25.6</v>
@@ -5515,7 +5513,7 @@
         <v>2016</v>
       </c>
       <c r="C345" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D345" s="10">
         <v>56.9</v>
@@ -5529,7 +5527,7 @@
         <v>2016</v>
       </c>
       <c r="C346" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D346" s="10">
         <v>57.3</v>
@@ -5543,7 +5541,7 @@
         <v>2016</v>
       </c>
       <c r="C347" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D347" s="10">
         <v>43.6</v>
@@ -5557,7 +5555,7 @@
         <v>2016</v>
       </c>
       <c r="C348" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D348" s="10">
         <v>55.6</v>
@@ -5571,7 +5569,7 @@
         <v>2016</v>
       </c>
       <c r="C349" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D349" s="10">
         <v>66</v>
@@ -5585,7 +5583,7 @@
         <v>2016</v>
       </c>
       <c r="C350" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D350" s="10">
         <v>19.600000000000001</v>
@@ -5599,7 +5597,7 @@
         <v>2016</v>
       </c>
       <c r="C351" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D351" s="10">
         <v>41.2</v>
@@ -5613,7 +5611,7 @@
         <v>2020</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D352" s="10">
         <v>18.7</v>
@@ -5627,7 +5625,7 @@
         <v>2020</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D353" s="10">
         <v>25</v>
@@ -5641,7 +5639,7 @@
         <v>2020</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D354" s="10">
         <v>21.5</v>
@@ -5655,7 +5653,7 @@
         <v>2020</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D355" s="10">
         <v>16.2</v>
@@ -5669,7 +5667,7 @@
         <v>2020</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D356" s="10">
         <v>21</v>
@@ -5677,13 +5675,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B357" s="12">
         <v>2020</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D357" s="10">
         <v>12.3</v>
@@ -5691,13 +5689,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B358" s="12">
         <v>2020</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D358" s="10">
         <v>20.100000000000001</v>
@@ -5711,7 +5709,7 @@
         <v>2020</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D359" s="10">
         <v>25.9</v>
@@ -5725,7 +5723,7 @@
         <v>2020</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D360" s="10">
         <v>15.4</v>
@@ -5739,7 +5737,7 @@
         <v>2020</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D361" s="10">
         <v>24.3</v>
@@ -5753,7 +5751,7 @@
         <v>2020</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D362" s="10">
         <v>38.200000000000003</v>
@@ -5767,7 +5765,7 @@
         <v>2020</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D363" s="10">
         <v>15.9</v>
@@ -5781,7 +5779,7 @@
         <v>2020</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D364" s="10">
         <v>22.3</v>
@@ -5795,7 +5793,7 @@
         <v>2020</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D365" s="10">
         <v>17.5</v>
@@ -5809,7 +5807,7 @@
         <v>2020</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D366" s="10">
         <v>19.7</v>
@@ -5823,7 +5821,7 @@
         <v>2020</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D367" s="10">
         <v>19.600000000000001</v>
@@ -5837,7 +5835,7 @@
         <v>2020</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D368" s="10">
         <v>27.6</v>
@@ -5851,7 +5849,7 @@
         <v>2020</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D369" s="10">
         <v>39</v>
@@ -5865,7 +5863,7 @@
         <v>2020</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D370" s="10">
         <v>10.8</v>
@@ -5879,7 +5877,7 @@
         <v>2020</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D371" s="10">
         <v>27.2</v>
@@ -5893,7 +5891,7 @@
         <v>2020</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D372" s="10">
         <v>14.6</v>
@@ -5907,7 +5905,7 @@
         <v>2020</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D373" s="10">
         <v>17.899999999999999</v>
@@ -5921,7 +5919,7 @@
         <v>2020</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D374" s="10">
         <v>29.7</v>
@@ -5935,7 +5933,7 @@
         <v>2020</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D375" s="10">
         <v>37</v>
@@ -5949,7 +5947,7 @@
         <v>2020</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D376" s="10">
         <v>24</v>
@@ -5963,7 +5961,7 @@
         <v>2020</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D377" s="10">
         <v>23.5</v>
@@ -5977,7 +5975,7 @@
         <v>2020</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D378" s="10">
         <v>12.9</v>
@@ -5991,7 +5989,7 @@
         <v>2020</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D379" s="10">
         <v>44.5</v>
@@ -6005,7 +6003,7 @@
         <v>2020</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D380" s="10">
         <v>23.7</v>
@@ -6019,7 +6017,7 @@
         <v>2020</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D381" s="10">
         <v>21.3</v>
@@ -6033,7 +6031,7 @@
         <v>2020</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D382" s="10">
         <v>20.7</v>
@@ -6047,7 +6045,7 @@
         <v>2020</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D383" s="10">
         <v>14.5</v>
@@ -6061,7 +6059,7 @@
         <v>2020</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D384" s="10">
         <v>13.5</v>
@@ -6075,7 +6073,7 @@
         <v>2020</v>
       </c>
       <c r="C385" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D385" s="10">
         <v>58.7</v>
@@ -6089,7 +6087,7 @@
         <v>2020</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D386" s="9"/>
     </row>
@@ -6101,7 +6099,7 @@
         <v>2019</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D387" s="10">
         <v>18.7</v>
@@ -6115,7 +6113,7 @@
         <v>2019</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D388" s="10">
         <v>25.9</v>
@@ -6129,7 +6127,7 @@
         <v>2019</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D389" s="10">
         <v>21.9</v>
@@ -6143,7 +6141,7 @@
         <v>2019</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D390" s="10">
         <v>16.5</v>
@@ -6157,7 +6155,7 @@
         <v>2019</v>
       </c>
       <c r="C391" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D391" s="10">
         <v>21.5</v>
@@ -6165,13 +6163,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B392" s="12">
         <v>2019</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D392" s="10">
         <v>12.3</v>
@@ -6179,13 +6177,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B393" s="12">
         <v>2019</v>
       </c>
       <c r="C393" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D393" s="10">
         <v>19.5</v>
@@ -6199,7 +6197,7 @@
         <v>2019</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D394" s="10">
         <v>26</v>
@@ -6213,7 +6211,7 @@
         <v>2019</v>
       </c>
       <c r="C395" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D395" s="10">
         <v>15.8</v>
@@ -6227,7 +6225,7 @@
         <v>2019</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D396" s="10">
         <v>25.9</v>
@@ -6241,7 +6239,7 @@
         <v>2019</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D397" s="10">
         <v>39.6</v>
@@ -6255,7 +6253,7 @@
         <v>2019</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D398" s="10">
         <v>16.899999999999999</v>
@@ -6269,7 +6267,7 @@
         <v>2019</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D399" s="10">
         <v>23.4</v>
@@ -6283,7 +6281,7 @@
         <v>2019</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D400" s="10">
         <v>18.100000000000001</v>
@@ -6297,7 +6295,7 @@
         <v>2019</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D401" s="10">
         <v>20</v>
@@ -6311,7 +6309,7 @@
         <v>2019</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D402" s="10">
         <v>21</v>
@@ -6325,7 +6323,7 @@
         <v>2019</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D403" s="10">
         <v>27.6</v>
@@ -6339,7 +6337,7 @@
         <v>2019</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D404" s="10">
         <v>39.799999999999997</v>
@@ -6353,7 +6351,7 @@
         <v>2019</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D405" s="10">
         <v>11.1</v>
@@ -6367,7 +6365,7 @@
         <v>2019</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D406" s="10">
         <v>26.7</v>
@@ -6381,7 +6379,7 @@
         <v>2019</v>
       </c>
       <c r="C407" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D407" s="10">
         <v>14.9</v>
@@ -6395,7 +6393,7 @@
         <v>2019</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D408" s="10">
         <v>17.399999999999999</v>
@@ -6409,7 +6407,7 @@
         <v>2019</v>
       </c>
       <c r="C409" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D409" s="10">
         <v>30.6</v>
@@ -6423,7 +6421,7 @@
         <v>2019</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D410" s="10">
         <v>38.799999999999997</v>
@@ -6437,7 +6435,7 @@
         <v>2019</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D411" s="10">
         <v>25.5</v>
@@ -6451,7 +6449,7 @@
         <v>2019</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D412" s="10">
         <v>23.7</v>
@@ -6465,7 +6463,7 @@
         <v>2019</v>
       </c>
       <c r="C413" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D413" s="10">
         <v>13.3</v>
@@ -6479,7 +6477,7 @@
         <v>2019</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D414" s="10">
         <v>47.6</v>
@@ -6493,7 +6491,7 @@
         <v>2019</v>
       </c>
       <c r="C415" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D415" s="10">
         <v>25.1</v>
@@ -6507,7 +6505,7 @@
         <v>2019</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D416" s="10">
         <v>22.1</v>
@@ -6521,7 +6519,7 @@
         <v>2019</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D417" s="10">
         <v>20.8</v>
@@ -6535,7 +6533,7 @@
         <v>2019</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D418" s="10">
         <v>15.8</v>
@@ -6549,7 +6547,7 @@
         <v>2019</v>
       </c>
       <c r="C419" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D419" s="10">
         <v>14.5</v>
@@ -6563,7 +6561,7 @@
         <v>2019</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D420" s="10">
         <v>60.5</v>
@@ -6577,7 +6575,7 @@
         <v>2019</v>
       </c>
       <c r="C421" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D421" s="10">
         <v>19.100000000000001</v>
@@ -6591,7 +6589,7 @@
         <v>2018</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D422" s="10">
         <v>18.899999999999999</v>
@@ -6605,7 +6603,7 @@
         <v>2018</v>
       </c>
       <c r="C423" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D423" s="10">
         <v>26.3</v>
@@ -6619,7 +6617,7 @@
         <v>2018</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D424" s="10">
         <v>21.5</v>
@@ -6633,7 +6631,7 @@
         <v>2018</v>
       </c>
       <c r="C425" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D425" s="10">
         <v>17.2</v>
@@ -6647,7 +6645,7 @@
         <v>2018</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D426" s="10">
         <v>21.9</v>
@@ -6655,13 +6653,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B427" s="12">
         <v>2018</v>
       </c>
       <c r="C427" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D427" s="10">
         <v>12.1</v>
@@ -6669,13 +6667,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B428" s="12">
         <v>2018</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D428" s="10">
         <v>19.600000000000001</v>
@@ -6689,7 +6687,7 @@
         <v>2018</v>
       </c>
       <c r="C429" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D429" s="10">
         <v>26.5</v>
@@ -6703,7 +6701,7 @@
         <v>2018</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D430" s="10">
         <v>16.8</v>
@@ -6717,7 +6715,7 @@
         <v>2018</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D431" s="10">
         <v>28.7</v>
@@ -6731,7 +6729,7 @@
         <v>2018</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D432" s="10">
         <v>40.799999999999997</v>
@@ -6745,7 +6743,7 @@
         <v>2018</v>
       </c>
       <c r="C433" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D433" s="10">
         <v>17.7</v>
@@ -6759,7 +6757,7 @@
         <v>2018</v>
       </c>
       <c r="C434" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D434" s="10">
         <v>24.4</v>
@@ -6773,7 +6771,7 @@
         <v>2018</v>
       </c>
       <c r="C435" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D435" s="10">
         <v>18.7</v>
@@ -6787,7 +6785,7 @@
         <v>2018</v>
       </c>
       <c r="C436" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D436" s="10">
         <v>20.2</v>
@@ -6801,7 +6799,7 @@
         <v>2018</v>
       </c>
       <c r="C437" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D437" s="10">
         <v>21.5</v>
@@ -6815,7 +6813,7 @@
         <v>2018</v>
       </c>
       <c r="C438" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D438" s="10">
         <v>29</v>
@@ -6829,7 +6827,7 @@
         <v>2018</v>
       </c>
       <c r="C439" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D439" s="10">
         <v>40.299999999999997</v>
@@ -6843,7 +6841,7 @@
         <v>2018</v>
       </c>
       <c r="C440" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D440" s="10">
         <v>11.7</v>
@@ -6857,7 +6855,7 @@
         <v>2018</v>
       </c>
       <c r="C441" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D441" s="10">
         <v>27.6</v>
@@ -6871,7 +6869,7 @@
         <v>2018</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D442" s="10">
         <v>15.3</v>
@@ -6885,7 +6883,7 @@
         <v>2018</v>
       </c>
       <c r="C443" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D443" s="10">
         <v>18.600000000000001</v>
@@ -6899,7 +6897,7 @@
         <v>2018</v>
       </c>
       <c r="C444" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D444" s="10">
         <v>31.6</v>
@@ -6913,7 +6911,7 @@
         <v>2018</v>
       </c>
       <c r="C445" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D445" s="10">
         <v>41</v>
@@ -6927,7 +6925,7 @@
         <v>2018</v>
       </c>
       <c r="C446" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D446" s="10">
         <v>26</v>
@@ -6941,7 +6939,7 @@
         <v>2018</v>
       </c>
       <c r="C447" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D447" s="10">
         <v>23.9</v>
@@ -6955,7 +6953,7 @@
         <v>2018</v>
       </c>
       <c r="C448" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D448" s="10">
         <v>13.5</v>
@@ -6969,7 +6967,7 @@
         <v>2018</v>
       </c>
       <c r="C449" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D449" s="10">
         <v>49.8</v>
@@ -6983,7 +6981,7 @@
         <v>2018</v>
       </c>
       <c r="C450" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D450" s="10">
         <v>26.3</v>
@@ -6997,7 +6995,7 @@
         <v>2018</v>
       </c>
       <c r="C451" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D451" s="10">
         <v>22.5</v>
@@ -7011,7 +7009,7 @@
         <v>2018</v>
       </c>
       <c r="C452" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D452" s="10">
         <v>20.9</v>
@@ -7025,7 +7023,7 @@
         <v>2018</v>
       </c>
       <c r="C453" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D453" s="10">
         <v>16.399999999999999</v>
@@ -7039,7 +7037,7 @@
         <v>2018</v>
       </c>
       <c r="C454" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D454" s="10">
         <v>14.4</v>
@@ -7053,7 +7051,7 @@
         <v>2018</v>
       </c>
       <c r="C455" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D455" s="10">
         <v>62.3</v>
@@ -7067,7 +7065,7 @@
         <v>2018</v>
       </c>
       <c r="C456" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D456" s="10">
         <v>19.7</v>
@@ -7081,7 +7079,7 @@
         <v>2017</v>
       </c>
       <c r="C457" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D457" s="10">
         <v>19.3</v>
@@ -7095,7 +7093,7 @@
         <v>2017</v>
       </c>
       <c r="C458" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D458" s="10">
         <v>27.2</v>
@@ -7109,7 +7107,7 @@
         <v>2017</v>
       </c>
       <c r="C459" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D459" s="10">
         <v>21.4</v>
@@ -7123,7 +7121,7 @@
         <v>2017</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D460" s="10">
         <v>17.8</v>
@@ -7137,7 +7135,7 @@
         <v>2017</v>
       </c>
       <c r="C461" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D461" s="10">
         <v>22.9</v>
@@ -7145,13 +7143,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B462" s="12">
         <v>2017</v>
       </c>
       <c r="C462" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D462" s="10">
         <v>12.1</v>
@@ -7159,13 +7157,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B463" s="12">
         <v>2017</v>
       </c>
       <c r="C463" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D463" s="10">
         <v>19.8</v>
@@ -7179,7 +7177,7 @@
         <v>2017</v>
       </c>
       <c r="C464" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D464" s="10">
         <v>26.7</v>
@@ -7193,7 +7191,7 @@
         <v>2017</v>
       </c>
       <c r="C465" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D465" s="10">
         <v>16.8</v>
@@ -7207,7 +7205,7 @@
         <v>2017</v>
       </c>
       <c r="C466" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D466" s="10">
         <v>29.3</v>
@@ -7221,7 +7219,7 @@
         <v>2017</v>
       </c>
       <c r="C467" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D467" s="10">
         <v>41.8</v>
@@ -7235,7 +7233,7 @@
         <v>2017</v>
       </c>
       <c r="C468" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D468" s="10">
         <v>18.399999999999999</v>
@@ -7249,7 +7247,7 @@
         <v>2017</v>
       </c>
       <c r="C469" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D469" s="10">
         <v>25.2</v>
@@ -7263,7 +7261,7 @@
         <v>2017</v>
       </c>
       <c r="C470" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D470" s="10">
         <v>19.899999999999999</v>
@@ -7277,7 +7275,7 @@
         <v>2017</v>
       </c>
       <c r="C471" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D471" s="10">
         <v>21.1</v>
@@ -7291,7 +7289,7 @@
         <v>2017</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D472" s="10">
         <v>21.8</v>
@@ -7305,7 +7303,7 @@
         <v>2017</v>
       </c>
       <c r="C473" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D473" s="10">
         <v>29.7</v>
@@ -7319,7 +7317,7 @@
         <v>2017</v>
       </c>
       <c r="C474" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D474" s="10">
         <v>40.9</v>
@@ -7333,7 +7331,7 @@
         <v>2017</v>
       </c>
       <c r="C475" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D475" s="10">
         <v>12</v>
@@ -7347,7 +7345,7 @@
         <v>2017</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D476" s="10">
         <v>30.5</v>
@@ -7361,7 +7359,7 @@
         <v>2017</v>
       </c>
       <c r="C477" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D477" s="10">
         <v>15.2</v>
@@ -7375,7 +7373,7 @@
         <v>2017</v>
       </c>
       <c r="C478" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D478" s="10">
         <v>19.5</v>
@@ -7389,7 +7387,7 @@
         <v>2017</v>
       </c>
       <c r="C479" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D479" s="10">
         <v>32</v>
@@ -7403,7 +7401,7 @@
         <v>2017</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D480" s="10">
         <v>44.2</v>
@@ -7417,7 +7415,7 @@
         <v>2017</v>
       </c>
       <c r="C481" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D481" s="10">
         <v>26.6</v>
@@ -7431,7 +7429,7 @@
         <v>2017</v>
       </c>
       <c r="C482" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D482" s="10">
         <v>24.9</v>
@@ -7445,7 +7443,7 @@
         <v>2017</v>
       </c>
       <c r="C483" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D483" s="10">
         <v>13.9</v>
@@ -7459,7 +7457,7 @@
         <v>2017</v>
       </c>
       <c r="C484" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D484" s="10">
         <v>51.7</v>
@@ -7473,7 +7471,7 @@
         <v>2017</v>
       </c>
       <c r="C485" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D485" s="10">
         <v>27</v>
@@ -7487,7 +7485,7 @@
         <v>2017</v>
       </c>
       <c r="C486" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D486" s="10">
         <v>23</v>
@@ -7501,7 +7499,7 @@
         <v>2017</v>
       </c>
       <c r="C487" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D487" s="10">
         <v>21.1</v>
@@ -7515,7 +7513,7 @@
         <v>2017</v>
       </c>
       <c r="C488" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D488" s="10">
         <v>16.7</v>
@@ -7529,7 +7527,7 @@
         <v>2017</v>
       </c>
       <c r="C489" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D489" s="10">
         <v>14.8</v>
@@ -7543,7 +7541,7 @@
         <v>2017</v>
       </c>
       <c r="C490" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D490" s="10">
         <v>63.4</v>
@@ -7557,7 +7555,7 @@
         <v>2017</v>
       </c>
       <c r="C491" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D491" s="10">
         <v>20</v>
@@ -7571,7 +7569,7 @@
         <v>2016</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D492" s="10">
         <v>19.600000000000001</v>
@@ -7585,7 +7583,7 @@
         <v>2016</v>
       </c>
       <c r="C493" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D493" s="10">
         <v>28.2</v>
@@ -7599,7 +7597,7 @@
         <v>2016</v>
       </c>
       <c r="C494" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D494" s="10">
         <v>21.9</v>
@@ -7613,7 +7611,7 @@
         <v>2016</v>
       </c>
       <c r="C495" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D495" s="10">
         <v>18.2</v>
@@ -7627,7 +7625,7 @@
         <v>2016</v>
       </c>
       <c r="C496" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D496" s="10">
         <v>24</v>
@@ -7635,13 +7633,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B497" s="12">
         <v>2016</v>
       </c>
       <c r="C497" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D497" s="10">
         <v>12.4</v>
@@ -7649,13 +7647,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B498" s="12">
         <v>2016</v>
       </c>
       <c r="C498" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D498" s="10">
         <v>19.8</v>
@@ -7669,7 +7667,7 @@
         <v>2016</v>
       </c>
       <c r="C499" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D499" s="10">
         <v>27.3</v>
@@ -7683,7 +7681,7 @@
         <v>2016</v>
       </c>
       <c r="C500" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D500" s="10">
         <v>16.7</v>
@@ -7697,7 +7695,7 @@
         <v>2016</v>
       </c>
       <c r="C501" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D501" s="10">
         <v>30</v>
@@ -7711,7 +7709,7 @@
         <v>2016</v>
       </c>
       <c r="C502" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D502" s="10">
         <v>42.6</v>
@@ -7725,7 +7723,7 @@
         <v>2016</v>
       </c>
       <c r="C503" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D503" s="10">
         <v>18.600000000000001</v>
@@ -7739,7 +7737,7 @@
         <v>2016</v>
       </c>
       <c r="C504" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D504" s="10">
         <v>25.5</v>
@@ -7753,7 +7751,7 @@
         <v>2016</v>
       </c>
       <c r="C505" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D505" s="10">
         <v>20.6</v>
@@ -7767,7 +7765,7 @@
         <v>2016</v>
       </c>
       <c r="C506" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D506" s="10">
         <v>21.8</v>
@@ -7781,7 +7779,7 @@
         <v>2016</v>
       </c>
       <c r="C507" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D507" s="10">
         <v>23</v>
@@ -7795,7 +7793,7 @@
         <v>2016</v>
       </c>
       <c r="C508" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D508" s="10">
         <v>29.2</v>
@@ -7809,7 +7807,7 @@
         <v>2016</v>
       </c>
       <c r="C509" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D509" s="10">
         <v>41.6</v>
@@ -7823,7 +7821,7 @@
         <v>2016</v>
       </c>
       <c r="C510" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D510" s="10">
         <v>12.4</v>
@@ -7837,7 +7835,7 @@
         <v>2016</v>
       </c>
       <c r="C511" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D511" s="10">
         <v>28.2</v>
@@ -7851,7 +7849,7 @@
         <v>2016</v>
       </c>
       <c r="C512" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D512" s="10">
         <v>14.9</v>
@@ -7865,7 +7863,7 @@
         <v>2016</v>
       </c>
       <c r="C513" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D513" s="10">
         <v>19.600000000000001</v>
@@ -7879,7 +7877,7 @@
         <v>2016</v>
       </c>
       <c r="C514" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D514" s="10">
         <v>33.4</v>
@@ -7893,7 +7891,7 @@
         <v>2016</v>
       </c>
       <c r="C515" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D515" s="10">
         <v>46.3</v>
@@ -7907,7 +7905,7 @@
         <v>2016</v>
       </c>
       <c r="C516" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D516" s="10">
         <v>27.9</v>
@@ -7921,7 +7919,7 @@
         <v>2016</v>
       </c>
       <c r="C517" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D517" s="10">
         <v>24.9</v>
@@ -7935,7 +7933,7 @@
         <v>2016</v>
       </c>
       <c r="C518" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D518" s="10">
         <v>14.6</v>
@@ -7949,7 +7947,7 @@
         <v>2016</v>
       </c>
       <c r="C519" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D519" s="10">
         <v>52.9</v>
@@ -7963,7 +7961,7 @@
         <v>2016</v>
       </c>
       <c r="C520" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D520" s="10">
         <v>28</v>
@@ -7977,7 +7975,7 @@
         <v>2016</v>
       </c>
       <c r="C521" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D521" s="10">
         <v>23.3</v>
@@ -7991,7 +7989,7 @@
         <v>2016</v>
       </c>
       <c r="C522" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D522" s="10">
         <v>21.1</v>
@@ -8005,7 +8003,7 @@
         <v>2016</v>
       </c>
       <c r="C523" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D523" s="10">
         <v>17.2</v>
@@ -8019,7 +8017,7 @@
         <v>2016</v>
       </c>
       <c r="C524" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D524" s="10">
         <v>14.3</v>
@@ -8033,7 +8031,7 @@
         <v>2016</v>
       </c>
       <c r="C525" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D525" s="10">
         <v>64.400000000000006</v>
@@ -8047,7 +8045,7 @@
         <v>2016</v>
       </c>
       <c r="C526" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D526" s="10">
         <v>20.5</v>

--- a/Education_final.xlsx
+++ b/Education_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047fa1933fd6d52d/Ambiente de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2568A5-A6BF-41B6-A95B-AF823CCC3003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C853BCCE-E040-4240-82BB-E9F803BBA5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="42">
-  <si>
-    <t>Tertiary education (levels 5-8)</t>
-  </si>
   <si>
     <t>Austria</t>
   </si>
@@ -127,13 +124,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Upper secondary and post-secondary non-tertiary education (levels 3 and 4)</t>
-  </si>
-  <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>Less than primary, primary and lower secondary education (levels 0-2)</t>
   </si>
   <si>
     <t>Country</t>
@@ -147,6 +138,15 @@
   <si>
     <t>Educational_Attainment_Level</t>
   </si>
+  <si>
+    <t>Levels 5-8</t>
+  </si>
+  <si>
+    <t>Levels 3-4</t>
+  </si>
+  <si>
+    <t>Levels 0-2</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -177,6 +177,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -277,17 +282,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -303,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,10 +347,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,12 +673,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="57.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.4140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
@@ -695,27 +688,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18">
         <v>2020</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6">
         <v>31.3</v>
@@ -723,13 +716,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
         <v>2020</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>37.6</v>
@@ -737,13 +730,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
         <v>2020</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <v>25.6</v>
@@ -751,13 +744,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
         <v>2020</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>39.299999999999997</v>
@@ -765,13 +758,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
         <v>2020</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>40.200000000000003</v>
@@ -779,13 +772,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="19">
+        <v>36</v>
+      </c>
+      <c r="B7" s="18">
         <v>2020</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>22.1</v>
@@ -793,13 +786,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="19">
+        <v>34</v>
+      </c>
+      <c r="B8" s="18">
         <v>2020</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>27.2</v>
@@ -807,13 +800,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18">
         <v>2020</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2">
         <v>33.700000000000003</v>
@@ -821,13 +814,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18">
         <v>2020</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2">
         <v>37.1</v>
@@ -835,13 +828,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="18">
         <v>2020</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2">
         <v>28.5</v>
@@ -849,13 +842,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18">
         <v>2020</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2">
         <v>36</v>
@@ -863,13 +856,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19">
+        <v>9</v>
+      </c>
+      <c r="B13" s="18">
         <v>2020</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2">
         <v>39.799999999999997</v>
@@ -877,13 +870,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19">
+        <v>10</v>
+      </c>
+      <c r="B14" s="18">
         <v>2020</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2">
         <v>35.299999999999997</v>
@@ -891,13 +884,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19">
+        <v>11</v>
+      </c>
+      <c r="B15" s="18">
         <v>2020</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2">
         <v>22</v>
@@ -905,13 +898,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="19">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18">
         <v>2020</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2">
         <v>23.6</v>
@@ -919,13 +912,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19">
+        <v>13</v>
+      </c>
+      <c r="B17" s="18">
         <v>2020</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>42.8</v>
@@ -933,13 +926,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19">
+        <v>14</v>
+      </c>
+      <c r="B18" s="18">
         <v>2020</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2">
         <v>36.799999999999997</v>
@@ -947,13 +940,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18">
         <v>2020</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2">
         <v>17.899999999999999</v>
@@ -961,13 +954,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19">
+        <v>16</v>
+      </c>
+      <c r="B20" s="18">
         <v>2020</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <v>38.700000000000003</v>
@@ -975,13 +968,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="19">
+        <v>17</v>
+      </c>
+      <c r="B21" s="18">
         <v>2020</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
         <v>40.9</v>
@@ -989,13 +982,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="19">
+        <v>18</v>
+      </c>
+      <c r="B22" s="18">
         <v>2020</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
         <v>33.200000000000003</v>
@@ -1003,13 +996,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="19">
+        <v>19</v>
+      </c>
+      <c r="B23" s="18">
         <v>2020</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2">
         <v>21.8</v>
@@ -1017,13 +1010,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19">
+        <v>20</v>
+      </c>
+      <c r="B24" s="18">
         <v>2020</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2">
         <v>20</v>
@@ -1031,13 +1024,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="19">
+        <v>21</v>
+      </c>
+      <c r="B25" s="18">
         <v>2020</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2">
         <v>28.1</v>
@@ -1045,13 +1038,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="19">
+        <v>22</v>
+      </c>
+      <c r="B26" s="18">
         <v>2020</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D26" s="2">
         <v>36.6</v>
@@ -1059,13 +1052,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="19">
+        <v>23</v>
+      </c>
+      <c r="B27" s="18">
         <v>2020</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2">
         <v>38.799999999999997</v>
@@ -1073,13 +1066,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="19">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18">
         <v>2020</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2">
         <v>28.9</v>
@@ -1087,13 +1080,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="19">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18">
         <v>2020</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2">
         <v>25.4</v>
@@ -1101,13 +1094,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="19">
+        <v>26</v>
+      </c>
+      <c r="B30" s="18">
         <v>2020</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2">
         <v>16.2</v>
@@ -1115,13 +1108,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="19">
+        <v>27</v>
+      </c>
+      <c r="B31" s="18">
         <v>2020</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
         <v>21</v>
@@ -1129,13 +1122,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="19">
+        <v>28</v>
+      </c>
+      <c r="B32" s="18">
         <v>2020</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2">
         <v>38.299999999999997</v>
@@ -1143,13 +1136,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="19">
+        <v>29</v>
+      </c>
+      <c r="B33" s="18">
         <v>2020</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2">
         <v>31.5</v>
@@ -1157,13 +1150,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="19">
+        <v>30</v>
+      </c>
+      <c r="B34" s="18">
         <v>2020</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2">
         <v>23.9</v>
@@ -1171,13 +1164,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="19">
+        <v>31</v>
+      </c>
+      <c r="B35" s="18">
         <v>2020</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D35" s="2">
         <v>19.7</v>
@@ -1185,25 +1178,25 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="19">
+        <v>32</v>
+      </c>
+      <c r="B36" s="18">
         <v>2020</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="19">
+        <v>0</v>
+      </c>
+      <c r="B37" s="18">
         <v>2019</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D37" s="8">
         <v>31.1</v>
@@ -1211,13 +1204,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="B38" s="18">
         <v>2019</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D38" s="8">
         <v>36</v>
@@ -1225,13 +1218,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="19">
+        <v>2</v>
+      </c>
+      <c r="B39" s="18">
         <v>2019</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D39" s="8">
         <v>24.7</v>
@@ -1239,13 +1232,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="19">
+        <v>3</v>
+      </c>
+      <c r="B40" s="18">
         <v>2019</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D40" s="8">
         <v>38.6</v>
@@ -1253,13 +1246,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="19">
+        <v>4</v>
+      </c>
+      <c r="B41" s="18">
         <v>2019</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D41" s="8">
         <v>40</v>
@@ -1267,13 +1260,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="19">
+        <v>36</v>
+      </c>
+      <c r="B42" s="18">
         <v>2019</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D42" s="8">
         <v>21.6</v>
@@ -1281,13 +1274,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="19">
+        <v>34</v>
+      </c>
+      <c r="B43" s="18">
         <v>2019</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D43" s="8">
         <v>26</v>
@@ -1295,13 +1288,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="19">
+        <v>5</v>
+      </c>
+      <c r="B44" s="18">
         <v>2019</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D44" s="8">
         <v>33.4</v>
@@ -1309,13 +1302,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="19">
+        <v>6</v>
+      </c>
+      <c r="B45" s="18">
         <v>2019</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D45" s="8">
         <v>36.5</v>
@@ -1323,13 +1316,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="19">
+        <v>7</v>
+      </c>
+      <c r="B46" s="18">
         <v>2019</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D46" s="8">
         <v>27.8</v>
@@ -1337,13 +1330,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="19">
+        <v>8</v>
+      </c>
+      <c r="B47" s="18">
         <v>2019</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D47" s="8">
         <v>35.1</v>
@@ -1351,13 +1344,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="19">
+        <v>9</v>
+      </c>
+      <c r="B48" s="18">
         <v>2019</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D48" s="8">
         <v>38.5</v>
@@ -1365,13 +1358,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="19">
+        <v>10</v>
+      </c>
+      <c r="B49" s="18">
         <v>2019</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D49" s="8">
         <v>33.799999999999997</v>
@@ -1379,13 +1372,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="19">
+        <v>11</v>
+      </c>
+      <c r="B50" s="18">
         <v>2019</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D50" s="8">
         <v>22</v>
@@ -1393,13 +1386,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="19">
+        <v>12</v>
+      </c>
+      <c r="B51" s="18">
         <v>2019</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D51" s="8">
         <v>22.5</v>
@@ -1407,13 +1400,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="19">
+        <v>13</v>
+      </c>
+      <c r="B52" s="18">
         <v>2019</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D52" s="8">
         <v>40.700000000000003</v>
@@ -1421,13 +1414,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="19">
+        <v>14</v>
+      </c>
+      <c r="B53" s="18">
         <v>2019</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D53" s="8">
         <v>37.700000000000003</v>
@@ -1435,13 +1428,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="19">
+        <v>15</v>
+      </c>
+      <c r="B54" s="18">
         <v>2019</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D54" s="8">
         <v>17.399999999999999</v>
@@ -1449,13 +1442,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="19">
+        <v>16</v>
+      </c>
+      <c r="B55" s="18">
         <v>2019</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D55" s="8">
         <v>37.9</v>
@@ -1463,13 +1456,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="19">
+        <v>17</v>
+      </c>
+      <c r="B56" s="18">
         <v>2019</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D56" s="8">
         <v>41</v>
@@ -1477,13 +1470,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="19">
+        <v>18</v>
+      </c>
+      <c r="B57" s="18">
         <v>2019</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D57" s="8">
         <v>31.4</v>
@@ -1491,13 +1484,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="19">
+        <v>19</v>
+      </c>
+      <c r="B58" s="18">
         <v>2019</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D58" s="8">
         <v>21.8</v>
@@ -1505,13 +1498,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="19">
+        <v>20</v>
+      </c>
+      <c r="B59" s="18">
         <v>2019</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D59" s="8">
         <v>18.3</v>
@@ -1519,13 +1512,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="19">
+        <v>21</v>
+      </c>
+      <c r="B60" s="18">
         <v>2019</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D60" s="8">
         <v>27</v>
@@ -1533,13 +1526,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="19">
+        <v>22</v>
+      </c>
+      <c r="B61" s="18">
         <v>2019</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D61" s="8">
         <v>34.799999999999997</v>
@@ -1547,13 +1540,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="19">
+        <v>23</v>
+      </c>
+      <c r="B62" s="18">
         <v>2019</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D62" s="8">
         <v>37.700000000000003</v>
@@ -1561,13 +1554,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="19">
+        <v>24</v>
+      </c>
+      <c r="B63" s="18">
         <v>2019</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D63" s="8">
         <v>28.2</v>
@@ -1575,13 +1568,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="19">
+        <v>25</v>
+      </c>
+      <c r="B64" s="18">
         <v>2019</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D64" s="8">
         <v>23.8</v>
@@ -1589,13 +1582,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="19">
+        <v>26</v>
+      </c>
+      <c r="B65" s="18">
         <v>2019</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D65" s="8">
         <v>16</v>
@@ -1603,13 +1596,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="19">
+        <v>27</v>
+      </c>
+      <c r="B66" s="18">
         <v>2019</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D66" s="8">
         <v>20.6</v>
@@ -1617,13 +1610,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="19">
+        <v>28</v>
+      </c>
+      <c r="B67" s="18">
         <v>2019</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D67" s="8">
         <v>37.799999999999997</v>
@@ -1631,13 +1624,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="19">
+        <v>29</v>
+      </c>
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D68" s="8">
         <v>29.3</v>
@@ -1645,13 +1638,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="19">
+        <v>30</v>
+      </c>
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D69" s="8">
         <v>23.1</v>
@@ -1659,13 +1652,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="19">
+        <v>31</v>
+      </c>
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D70" s="8">
         <v>18.399999999999999</v>
@@ -1673,13 +1666,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="19">
+        <v>32</v>
+      </c>
+      <c r="B71" s="18">
         <v>2019</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D71" s="8">
         <v>40.6</v>
@@ -1687,13 +1680,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="19">
+        <v>0</v>
+      </c>
+      <c r="B72" s="18">
         <v>2018</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D72" s="10">
         <v>30.1</v>
@@ -1701,13 +1694,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="19">
+        <v>1</v>
+      </c>
+      <c r="B73" s="18">
         <v>2018</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D73" s="10">
         <v>36</v>
@@ -1715,13 +1708,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="19">
+        <v>2</v>
+      </c>
+      <c r="B74" s="18">
         <v>2018</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D74" s="10">
         <v>24.8</v>
@@ -1729,13 +1722,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="19">
+        <v>3</v>
+      </c>
+      <c r="B75" s="18">
         <v>2018</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D75" s="10">
         <v>37.700000000000003</v>
@@ -1743,13 +1736,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="19">
+        <v>4</v>
+      </c>
+      <c r="B76" s="18">
         <v>2018</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D76" s="10">
         <v>39.4</v>
@@ -1757,13 +1750,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="19">
+        <v>36</v>
+      </c>
+      <c r="B77" s="18">
         <v>2018</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D77" s="10">
         <v>21.7</v>
@@ -1771,13 +1764,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="19">
+        <v>34</v>
+      </c>
+      <c r="B78" s="18">
         <v>2018</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D78" s="10">
         <v>25.2</v>
@@ -1785,13 +1778,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="19">
+        <v>5</v>
+      </c>
+      <c r="B79" s="18">
         <v>2018</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D79" s="10">
         <v>32.6</v>
@@ -1799,13 +1792,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="19">
+        <v>6</v>
+      </c>
+      <c r="B80" s="18">
         <v>2018</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D80" s="10">
         <v>35.9</v>
@@ -1813,13 +1806,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="19">
+        <v>7</v>
+      </c>
+      <c r="B81" s="18">
         <v>2018</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D81" s="10">
         <v>27.7</v>
@@ -1827,13 +1820,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="19">
+        <v>8</v>
+      </c>
+      <c r="B82" s="18">
         <v>2018</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D82" s="10">
         <v>34</v>
@@ -1841,13 +1834,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="19">
+        <v>9</v>
+      </c>
+      <c r="B83" s="18">
         <v>2018</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D83" s="10">
         <v>37.299999999999997</v>
@@ -1855,13 +1848,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="19">
+        <v>10</v>
+      </c>
+      <c r="B84" s="18">
         <v>2018</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D84" s="10">
         <v>32.799999999999997</v>
@@ -1869,13 +1862,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="19">
+        <v>11</v>
+      </c>
+      <c r="B85" s="18">
         <v>2018</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D85" s="10">
         <v>22</v>
@@ -1883,13 +1876,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="19">
+        <v>12</v>
+      </c>
+      <c r="B86" s="18">
         <v>2018</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D86" s="10">
         <v>21.7</v>
@@ -1897,13 +1890,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="19">
+        <v>13</v>
+      </c>
+      <c r="B87" s="18">
         <v>2018</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D87" s="10">
         <v>40.5</v>
@@ -1911,13 +1904,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="19">
+        <v>14</v>
+      </c>
+      <c r="B88" s="18">
         <v>2018</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D88" s="10">
         <v>36.5</v>
@@ -1925,13 +1918,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="19">
+        <v>15</v>
+      </c>
+      <c r="B89" s="18">
         <v>2018</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D89" s="10">
         <v>17.100000000000001</v>
@@ -1939,13 +1932,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="19">
+        <v>16</v>
+      </c>
+      <c r="B90" s="18">
         <v>2018</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D90" s="10">
         <v>36.1</v>
@@ -1953,13 +1946,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B91" s="19">
+        <v>17</v>
+      </c>
+      <c r="B91" s="18">
         <v>2018</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D91" s="10">
         <v>38.299999999999997</v>
@@ -1967,13 +1960,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B92" s="19">
+        <v>18</v>
+      </c>
+      <c r="B92" s="18">
         <v>2018</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D92" s="10">
         <v>30.1</v>
@@ -1981,13 +1974,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="19">
+        <v>19</v>
+      </c>
+      <c r="B93" s="18">
         <v>2018</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D93" s="10">
         <v>20.3</v>
@@ -1995,13 +1988,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="19">
+        <v>20</v>
+      </c>
+      <c r="B94" s="18">
         <v>2018</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D94" s="10">
         <v>17.600000000000001</v>
@@ -2009,13 +2002,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="19">
+        <v>21</v>
+      </c>
+      <c r="B95" s="18">
         <v>2018</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D95" s="10">
         <v>24.6</v>
@@ -2023,13 +2016,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="19">
+        <v>22</v>
+      </c>
+      <c r="B96" s="18">
         <v>2018</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D96" s="10">
         <v>33</v>
@@ -2037,13 +2030,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="19">
+        <v>23</v>
+      </c>
+      <c r="B97" s="18">
         <v>2018</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D97" s="10">
         <v>37.5</v>
@@ -2051,13 +2044,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="19">
+        <v>24</v>
+      </c>
+      <c r="B98" s="18">
         <v>2018</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D98" s="10">
         <v>27.2</v>
@@ -2065,13 +2058,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="19">
+        <v>25</v>
+      </c>
+      <c r="B99" s="18">
         <v>2018</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D99" s="10">
         <v>22.5</v>
@@ -2079,13 +2072,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="19">
+        <v>26</v>
+      </c>
+      <c r="B100" s="18">
         <v>2018</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D100" s="10">
         <v>15.5</v>
@@ -2093,13 +2086,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" s="19">
+        <v>27</v>
+      </c>
+      <c r="B101" s="18">
         <v>2018</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D101" s="10">
         <v>20.399999999999999</v>
@@ -2107,13 +2100,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B102" s="19">
+        <v>28</v>
+      </c>
+      <c r="B102" s="18">
         <v>2018</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D102" s="10">
         <v>37.1</v>
@@ -2121,13 +2114,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B103" s="19">
+        <v>29</v>
+      </c>
+      <c r="B103" s="18">
         <v>2018</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D103" s="10">
         <v>28.7</v>
@@ -2135,13 +2128,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="19">
+        <v>30</v>
+      </c>
+      <c r="B104" s="18">
         <v>2018</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D104" s="10">
         <v>22</v>
@@ -2149,13 +2142,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="19">
+        <v>31</v>
+      </c>
+      <c r="B105" s="18">
         <v>2018</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D105" s="10">
         <v>17.3</v>
@@ -2163,13 +2156,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="19">
+        <v>32</v>
+      </c>
+      <c r="B106" s="18">
         <v>2018</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D106" s="10">
         <v>39.299999999999997</v>
@@ -2177,13 +2170,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="19">
+        <v>0</v>
+      </c>
+      <c r="B107" s="18">
         <v>2017</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D107" s="10">
         <v>29.7</v>
@@ -2191,13 +2184,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="19">
+        <v>1</v>
+      </c>
+      <c r="B108" s="18">
         <v>2017</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D108" s="10">
         <v>35.6</v>
@@ -2205,13 +2198,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="19">
+        <v>2</v>
+      </c>
+      <c r="B109" s="18">
         <v>2017</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D109" s="10">
         <v>24.5</v>
@@ -2219,13 +2212,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="19">
+        <v>3</v>
+      </c>
+      <c r="B110" s="18">
         <v>2017</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D110" s="10">
         <v>36.799999999999997</v>
@@ -2233,13 +2226,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="19">
+        <v>4</v>
+      </c>
+      <c r="B111" s="18">
         <v>2017</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D111" s="10">
         <v>38.1</v>
@@ -2247,13 +2240,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B112" s="19">
+        <v>36</v>
+      </c>
+      <c r="B112" s="18">
         <v>2017</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D112" s="10">
         <v>21.4</v>
@@ -2261,13 +2254,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B113" s="19">
+        <v>34</v>
+      </c>
+      <c r="B113" s="18">
         <v>2017</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D113" s="10">
         <v>24.8</v>
@@ -2275,13 +2268,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="19">
+        <v>5</v>
+      </c>
+      <c r="B114" s="18">
         <v>2017</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D114" s="10">
         <v>32.200000000000003</v>
@@ -2289,13 +2282,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="19">
+        <v>6</v>
+      </c>
+      <c r="B115" s="18">
         <v>2017</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D115" s="10">
         <v>34.700000000000003</v>
@@ -2303,13 +2296,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="19">
+        <v>7</v>
+      </c>
+      <c r="B116" s="18">
         <v>2017</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D116" s="10">
         <v>27.2</v>
@@ -2317,13 +2310,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="19">
+        <v>8</v>
+      </c>
+      <c r="B117" s="18">
         <v>2017</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D117" s="10">
         <v>33.200000000000003</v>
@@ -2331,13 +2324,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="19">
+        <v>9</v>
+      </c>
+      <c r="B118" s="18">
         <v>2017</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D118" s="10">
         <v>36.4</v>
@@ -2345,13 +2338,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="19">
+        <v>10</v>
+      </c>
+      <c r="B119" s="18">
         <v>2017</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D119" s="10">
         <v>31.4</v>
@@ -2359,13 +2352,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" s="19">
+        <v>11</v>
+      </c>
+      <c r="B120" s="18">
         <v>2017</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D120" s="10">
         <v>20.6</v>
@@ -2373,13 +2366,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="19">
+        <v>12</v>
+      </c>
+      <c r="B121" s="18">
         <v>2017</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D121" s="10">
         <v>20.9</v>
@@ -2387,13 +2380,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="19">
+        <v>13</v>
+      </c>
+      <c r="B122" s="18">
         <v>2017</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D122" s="10">
         <v>40.4</v>
@@ -2401,13 +2394,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B123" s="19">
+        <v>14</v>
+      </c>
+      <c r="B123" s="18">
         <v>2017</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D123" s="10">
         <v>35.299999999999997</v>
@@ -2415,13 +2408,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B124" s="19">
+        <v>15</v>
+      </c>
+      <c r="B124" s="18">
         <v>2017</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D124" s="10">
         <v>16.5</v>
@@ -2429,13 +2422,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B125" s="19">
+        <v>16</v>
+      </c>
+      <c r="B125" s="18">
         <v>2017</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D125" s="10">
         <v>34.799999999999997</v>
@@ -2443,13 +2436,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B126" s="19">
+        <v>17</v>
+      </c>
+      <c r="B126" s="18">
         <v>2017</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D126" s="10">
         <v>34.1</v>
@@ -2457,13 +2450,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" s="19">
+        <v>18</v>
+      </c>
+      <c r="B127" s="18">
         <v>2017</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D127" s="10">
         <v>30</v>
@@ -2471,13 +2464,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B128" s="19">
+        <v>19</v>
+      </c>
+      <c r="B128" s="18">
         <v>2017</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D128" s="10">
         <v>20.6</v>
@@ -2485,13 +2478,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B129" s="19">
+        <v>20</v>
+      </c>
+      <c r="B129" s="18">
         <v>2017</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D129" s="10">
         <v>18</v>
@@ -2499,13 +2492,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="19">
+        <v>21</v>
+      </c>
+      <c r="B130" s="18">
         <v>2017</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D130" s="10">
         <v>22.1</v>
@@ -2513,13 +2506,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="19">
+        <v>22</v>
+      </c>
+      <c r="B131" s="18">
         <v>2017</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D131" s="10">
         <v>32.1</v>
@@ -2527,13 +2520,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" s="19">
+        <v>23</v>
+      </c>
+      <c r="B132" s="18">
         <v>2017</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D132" s="10">
         <v>36.799999999999997</v>
@@ -2541,13 +2534,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B133" s="19">
+        <v>24</v>
+      </c>
+      <c r="B133" s="18">
         <v>2017</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D133" s="10">
         <v>26.3</v>
@@ -2555,13 +2548,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" s="19">
+        <v>25</v>
+      </c>
+      <c r="B134" s="18">
         <v>2017</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D134" s="10">
         <v>21.7</v>
@@ -2569,13 +2562,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" s="19">
+        <v>26</v>
+      </c>
+      <c r="B135" s="18">
         <v>2017</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D135" s="10">
         <v>15.3</v>
@@ -2583,13 +2576,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B136" s="19">
+        <v>27</v>
+      </c>
+      <c r="B136" s="18">
         <v>2017</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D136" s="10">
         <v>19.8</v>
@@ -2597,13 +2590,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B137" s="19">
+        <v>28</v>
+      </c>
+      <c r="B137" s="18">
         <v>2017</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D137" s="10">
         <v>36</v>
@@ -2611,13 +2604,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B138" s="19">
+        <v>29</v>
+      </c>
+      <c r="B138" s="18">
         <v>2017</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D138" s="10">
         <v>28.7</v>
@@ -2625,13 +2618,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" s="19">
+        <v>30</v>
+      </c>
+      <c r="B139" s="18">
         <v>2017</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D139" s="10">
         <v>20.7</v>
@@ -2639,13 +2632,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B140" s="19">
+        <v>31</v>
+      </c>
+      <c r="B140" s="18">
         <v>2017</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D140" s="10">
         <v>16.600000000000001</v>
@@ -2653,13 +2646,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B141" s="19">
+        <v>32</v>
+      </c>
+      <c r="B141" s="18">
         <v>2017</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D141" s="10">
         <v>38.700000000000003</v>
@@ -2667,13 +2660,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="19">
+        <v>0</v>
+      </c>
+      <c r="B142" s="18">
         <v>2016</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D142" s="10">
         <v>28.9</v>
@@ -2681,13 +2674,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="19">
+        <v>1</v>
+      </c>
+      <c r="B143" s="18">
         <v>2016</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D143" s="10">
         <v>33.200000000000003</v>
@@ -2695,13 +2688,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="19">
+        <v>2</v>
+      </c>
+      <c r="B144" s="18">
         <v>2016</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D144" s="10">
         <v>24.4</v>
@@ -2709,13 +2702,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="19">
+        <v>3</v>
+      </c>
+      <c r="B145" s="18">
         <v>2016</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D145" s="10">
         <v>35.4</v>
@@ -2723,13 +2716,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B146" s="19">
+        <v>4</v>
+      </c>
+      <c r="B146" s="18">
         <v>2016</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D146" s="10">
         <v>37.6</v>
@@ -2737,13 +2730,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B147" s="19">
+        <v>36</v>
+      </c>
+      <c r="B147" s="18">
         <v>2016</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D147" s="10">
         <v>20.6</v>
@@ -2751,13 +2744,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B148" s="19">
+        <v>34</v>
+      </c>
+      <c r="B148" s="18">
         <v>2016</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D148" s="10">
         <v>24.4</v>
@@ -2765,13 +2758,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="19">
+        <v>5</v>
+      </c>
+      <c r="B149" s="18">
         <v>2016</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D149" s="10">
         <v>31.1</v>
@@ -2779,13 +2772,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B150" s="19">
+        <v>6</v>
+      </c>
+      <c r="B150" s="18">
         <v>2016</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D150" s="10">
         <v>34.1</v>
@@ -2793,13 +2786,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" s="19">
+        <v>7</v>
+      </c>
+      <c r="B151" s="18">
         <v>2016</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D151" s="10">
         <v>26.4</v>
@@ -2807,13 +2800,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B152" s="19">
+        <v>8</v>
+      </c>
+      <c r="B152" s="18">
         <v>2016</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D152" s="10">
         <v>32.700000000000003</v>
@@ -2821,13 +2814,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="19">
+        <v>9</v>
+      </c>
+      <c r="B153" s="18">
         <v>2016</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D153" s="10">
         <v>35.9</v>
@@ -2835,13 +2828,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="19">
+        <v>10</v>
+      </c>
+      <c r="B154" s="18">
         <v>2016</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D154" s="10">
         <v>30.9</v>
@@ -2849,13 +2842,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B155" s="19">
+        <v>11</v>
+      </c>
+      <c r="B155" s="18">
         <v>2016</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D155" s="10">
         <v>20</v>
@@ -2863,13 +2856,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" s="19">
+        <v>12</v>
+      </c>
+      <c r="B156" s="18">
         <v>2016</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D156" s="10">
         <v>20.6</v>
@@ -2877,13 +2870,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="19">
+        <v>13</v>
+      </c>
+      <c r="B157" s="18">
         <v>2016</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D157" s="10">
         <v>39.5</v>
@@ -2891,13 +2884,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158" s="19">
+        <v>14</v>
+      </c>
+      <c r="B158" s="18">
         <v>2016</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D158" s="10">
         <v>33.4</v>
@@ -2905,13 +2898,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" s="19">
+        <v>15</v>
+      </c>
+      <c r="B159" s="18">
         <v>2016</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D159" s="10">
         <v>15.7</v>
@@ -2919,13 +2912,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B160" s="19">
+        <v>16</v>
+      </c>
+      <c r="B160" s="18">
         <v>2016</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D160" s="10">
         <v>34.1</v>
@@ -2933,13 +2926,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B161" s="19">
+        <v>17</v>
+      </c>
+      <c r="B161" s="18">
         <v>2016</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D161" s="10">
         <v>36.4</v>
@@ -2947,13 +2940,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" s="19">
+        <v>18</v>
+      </c>
+      <c r="B162" s="18">
         <v>2016</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D162" s="10">
         <v>29.5</v>
@@ -2961,13 +2954,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="19">
+        <v>19</v>
+      </c>
+      <c r="B163" s="18">
         <v>2016</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D163" s="10">
         <v>21.2</v>
@@ -2975,13 +2968,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" s="19">
+        <v>20</v>
+      </c>
+      <c r="B164" s="18">
         <v>2016</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D164" s="10">
         <v>17.899999999999999</v>
@@ -2989,13 +2982,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B165" s="19">
+        <v>21</v>
+      </c>
+      <c r="B165" s="18">
         <v>2016</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D165" s="10">
         <v>20.3</v>
@@ -3003,13 +2996,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="19">
+        <v>22</v>
+      </c>
+      <c r="B166" s="18">
         <v>2016</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D166" s="10">
         <v>31</v>
@@ -3017,13 +3010,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" s="19">
+        <v>23</v>
+      </c>
+      <c r="B167" s="18">
         <v>2016</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D167" s="10">
         <v>36.799999999999997</v>
@@ -3031,13 +3024,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B168" s="19">
+        <v>24</v>
+      </c>
+      <c r="B168" s="18">
         <v>2016</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D168" s="10">
         <v>25.2</v>
@@ -3045,13 +3038,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B169" s="19">
+        <v>25</v>
+      </c>
+      <c r="B169" s="18">
         <v>2016</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D169" s="10">
         <v>21.5</v>
@@ -3059,13 +3052,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B170" s="19">
+        <v>26</v>
+      </c>
+      <c r="B170" s="18">
         <v>2016</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D170" s="10">
         <v>15.1</v>
@@ -3073,13 +3066,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B171" s="19">
+        <v>27</v>
+      </c>
+      <c r="B171" s="18">
         <v>2016</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D171" s="10">
         <v>19.399999999999999</v>
@@ -3087,13 +3080,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B172" s="19">
+        <v>28</v>
+      </c>
+      <c r="B172" s="18">
         <v>2016</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D172" s="10">
         <v>35.299999999999997</v>
@@ -3101,13 +3094,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B173" s="19">
+        <v>29</v>
+      </c>
+      <c r="B173" s="18">
         <v>2016</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D173" s="10">
         <v>27.2</v>
@@ -3115,13 +3108,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B174" s="19">
+        <v>30</v>
+      </c>
+      <c r="B174" s="18">
         <v>2016</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D174" s="10">
         <v>19.7</v>
@@ -3129,13 +3122,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B175" s="19">
+        <v>31</v>
+      </c>
+      <c r="B175" s="18">
         <v>2016</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D175" s="10">
         <v>16</v>
@@ -3143,13 +3136,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B176" s="19">
-        <v>2016</v>
-      </c>
-      <c r="C176" s="17" t="s">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B176" s="18">
+        <v>2016</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D176" s="10">
         <v>38.299999999999997</v>
@@ -3157,13 +3150,13 @@
     </row>
     <row r="177" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="B177" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D177" s="10">
         <v>50</v>
@@ -3171,13 +3164,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B178" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D178" s="10">
         <v>37.4</v>
@@ -3185,13 +3178,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B179" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="B179" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D179" s="10">
         <v>52.9</v>
@@ -3199,13 +3192,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B180" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D180" s="10">
         <v>44.5</v>
@@ -3213,13 +3206,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B181" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D181" s="10">
         <v>38.799999999999997</v>
@@ -3227,13 +3220,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B182" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B182" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D182" s="10">
         <v>65.599999999999994</v>
@@ -3241,13 +3234,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B183" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B183" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D183" s="10">
         <v>52.7</v>
@@ -3255,13 +3248,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="B184" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D184" s="10">
         <v>40.4</v>
@@ -3269,13 +3262,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="B185" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D185" s="10">
         <v>47.6</v>
@@ -3283,13 +3276,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B186" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="B186" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D186" s="10">
         <v>47.2</v>
@@ -3297,13 +3290,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B187" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="B187" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D187" s="10">
         <v>25.8</v>
@@ -3311,13 +3304,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B188" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="B188" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D188" s="10">
         <v>44.2</v>
@@ -3325,13 +3318,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="B189" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D189" s="10">
         <v>42.4</v>
@@ -3339,13 +3332,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B190" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B190" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D190" s="10">
         <v>60.5</v>
@@ -3353,13 +3346,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B191" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B191" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D191" s="10">
         <v>56.7</v>
@@ -3367,13 +3360,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B192" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="B192" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D192" s="10">
         <v>37.6</v>
@@ -3381,13 +3374,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B193" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B193" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D193" s="10">
         <v>35.6</v>
@@ -3395,13 +3388,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="B194" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D194" s="10">
         <v>43.1</v>
@@ -3409,13 +3402,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B195" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B195" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D195" s="10">
         <v>50.5</v>
@@ -3423,13 +3416,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B196" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="B196" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D196" s="10">
         <v>31.9</v>
@@ -3437,13 +3430,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B197" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B197" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D197" s="10">
         <v>52.2</v>
@@ -3451,13 +3444,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B198" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="B198" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D198" s="10">
         <v>60.3</v>
@@ -3465,13 +3458,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B199" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B199" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D199" s="10">
         <v>50.3</v>
@@ -3479,13 +3472,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B200" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="B200" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D200" s="10">
         <v>34.9</v>
@@ -3493,13 +3486,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B201" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B201" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D201" s="10">
         <v>39.4</v>
@@ -3507,13 +3500,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B202" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="B202" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D202" s="10">
         <v>37.700000000000003</v>
@@ -3521,13 +3514,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B203" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="B203" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D203" s="10">
         <v>58.1</v>
@@ -3535,13 +3528,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B204" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B204" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D204" s="10">
         <v>30.2</v>
@@ -3549,13 +3542,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B205" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B205" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D205" s="10">
         <v>60.1</v>
@@ -3563,13 +3556,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B206" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B206" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D206" s="10">
         <v>57.7</v>
@@ -3577,13 +3570,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B207" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B207" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D207" s="10">
         <v>41.1</v>
@@ -3591,13 +3584,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B208" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B208" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D208" s="10">
         <v>54</v>
@@ -3605,13 +3598,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B209" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C209" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B209" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C209" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D209" s="10">
         <v>62.6</v>
@@ -3619,13 +3612,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B210" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C210" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B210" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D210" s="10">
         <v>21.7</v>
@@ -3633,25 +3626,25 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B211" s="19">
-        <v>2020</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B211" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C211" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D211" s="9"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B212" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C212" s="18" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="B212" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D212" s="10">
         <v>50.2</v>
@@ -3659,13 +3652,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B213" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B213" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C213" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D213" s="10">
         <v>38.1</v>
@@ -3673,13 +3666,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B214" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C214" s="18" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="B214" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D214" s="10">
         <v>53.5</v>
@@ -3687,13 +3680,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B215" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C215" s="18" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B215" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C215" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D215" s="10">
         <v>44.9</v>
@@ -3701,13 +3694,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B216" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D216" s="10">
         <v>38.5</v>
@@ -3715,13 +3708,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B217" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C217" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B217" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D217" s="10">
         <v>66.099999999999994</v>
@@ -3729,13 +3722,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B218" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C218" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B218" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D218" s="10">
         <v>54.5</v>
@@ -3743,13 +3736,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="B219" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D219" s="10">
         <v>40.6</v>
@@ -3757,13 +3750,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B220" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C220" s="18" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="B220" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D220" s="10">
         <v>47.7</v>
@@ -3771,13 +3764,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B221" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C221" s="18" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="B221" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D221" s="10">
         <v>46.3</v>
@@ -3785,13 +3778,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B222" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="B222" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D222" s="10">
         <v>25.3</v>
@@ -3799,13 +3792,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B223" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="B223" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D223" s="10">
         <v>44.6</v>
@@ -3813,13 +3806,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B224" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C224" s="18" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="B224" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D224" s="10">
         <v>42.8</v>
@@ -3827,13 +3820,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B225" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="B225" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D225" s="10">
         <v>59.9</v>
@@ -3841,13 +3834,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B226" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B226" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D226" s="10">
         <v>57.6</v>
@@ -3855,13 +3848,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B227" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C227" s="18" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="B227" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D227" s="10">
         <v>38.299999999999997</v>
@@ -3869,13 +3862,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B228" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C228" s="18" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B228" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D228" s="10">
         <v>34.6</v>
@@ -3883,13 +3876,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B229" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C229" s="18" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="B229" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D229" s="10">
         <v>42.8</v>
@@ -3897,13 +3890,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B230" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C230" s="18" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B230" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D230" s="10">
         <v>51</v>
@@ -3911,13 +3904,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B231" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C231" s="18" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="B231" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D231" s="10">
         <v>32.299999999999997</v>
@@ -3925,13 +3918,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B232" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C232" s="18" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B232" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D232" s="10">
         <v>53.8</v>
@@ -3939,13 +3932,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B233" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C233" s="18" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="B233" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D233" s="10">
         <v>60.7</v>
@@ -3953,13 +3946,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B234" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C234" s="18" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B234" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D234" s="10">
         <v>51</v>
@@ -3967,13 +3960,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B235" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C235" s="18" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="B235" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D235" s="10">
         <v>34.200000000000003</v>
@@ -3981,13 +3974,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B236" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C236" s="18" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B236" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D236" s="10">
         <v>39.700000000000003</v>
@@ -3995,13 +3988,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B237" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C237" s="18" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="B237" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D237" s="10">
         <v>38.6</v>
@@ -4009,13 +4002,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B238" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C238" s="18" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="B238" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D238" s="10">
         <v>58.5</v>
@@ -4023,13 +4016,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B239" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C239" s="18" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B239" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D239" s="10">
         <v>28.7</v>
@@ -4037,13 +4030,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B240" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C240" s="18" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B240" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D240" s="10">
         <v>58.9</v>
@@ -4051,13 +4044,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B241" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C241" s="18" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B241" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D241" s="10">
         <v>57.3</v>
@@ -4065,13 +4058,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B242" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C242" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B242" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D242" s="10">
         <v>41.5</v>
@@ -4079,13 +4072,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B243" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C243" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B243" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D243" s="10">
         <v>54.9</v>
@@ -4093,13 +4086,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B244" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C244" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B244" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D244" s="10">
         <v>62.3</v>
@@ -4107,13 +4100,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B245" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C245" s="18" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B245" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D245" s="10">
         <v>21.1</v>
@@ -4121,13 +4114,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B246" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C246" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B246" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D246" s="10">
         <v>40.200000000000003</v>
@@ -4135,13 +4128,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B247" s="12">
         <v>2018</v>
       </c>
-      <c r="C247" s="18" t="s">
-        <v>35</v>
+      <c r="C247" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D247" s="10">
         <v>51</v>
@@ -4149,13 +4142,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B248" s="12">
         <v>2018</v>
       </c>
-      <c r="C248" s="18" t="s">
-        <v>35</v>
+      <c r="C248" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D248" s="10">
         <v>37.700000000000003</v>
@@ -4163,13 +4156,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B249" s="12">
         <v>2018</v>
       </c>
-      <c r="C249" s="18" t="s">
-        <v>35</v>
+      <c r="C249" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D249" s="10">
         <v>53.6</v>
@@ -4177,13 +4170,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B250" s="12">
         <v>2018</v>
       </c>
-      <c r="C250" s="18" t="s">
-        <v>35</v>
+      <c r="C250" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D250" s="10">
         <v>45</v>
@@ -4191,13 +4184,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B251" s="12">
         <v>2018</v>
       </c>
-      <c r="C251" s="18" t="s">
-        <v>35</v>
+      <c r="C251" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D251" s="10">
         <v>38.700000000000003</v>
@@ -4205,13 +4198,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B252" s="12">
         <v>2018</v>
       </c>
-      <c r="C252" s="18" t="s">
-        <v>35</v>
+      <c r="C252" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D252" s="10">
         <v>66.2</v>
@@ -4219,13 +4212,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B253" s="12">
         <v>2018</v>
       </c>
-      <c r="C253" s="18" t="s">
-        <v>35</v>
+      <c r="C253" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D253" s="10">
         <v>55.2</v>
@@ -4233,13 +4226,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B254" s="12">
         <v>2018</v>
       </c>
-      <c r="C254" s="18" t="s">
-        <v>35</v>
+      <c r="C254" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D254" s="10">
         <v>40.9</v>
@@ -4247,13 +4240,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B255" s="12">
         <v>2018</v>
       </c>
-      <c r="C255" s="18" t="s">
-        <v>35</v>
+      <c r="C255" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D255" s="10">
         <v>47.3</v>
@@ -4261,13 +4254,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B256" s="12">
         <v>2018</v>
       </c>
-      <c r="C256" s="18" t="s">
-        <v>35</v>
+      <c r="C256" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D256" s="10">
         <v>43.6</v>
@@ -4275,13 +4268,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B257" s="12">
         <v>2018</v>
       </c>
-      <c r="C257" s="18" t="s">
-        <v>35</v>
+      <c r="C257" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D257" s="10">
         <v>25.2</v>
@@ -4289,13 +4282,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B258" s="12">
         <v>2018</v>
       </c>
-      <c r="C258" s="18" t="s">
-        <v>35</v>
+      <c r="C258" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D258" s="10">
         <v>45.1</v>
@@ -4303,13 +4296,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B259" s="12">
         <v>2018</v>
       </c>
-      <c r="C259" s="18" t="s">
-        <v>35</v>
+      <c r="C259" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D259" s="10">
         <v>42.8</v>
@@ -4317,13 +4310,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B260" s="12">
         <v>2018</v>
       </c>
-      <c r="C260" s="18" t="s">
-        <v>35</v>
+      <c r="C260" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D260" s="10">
         <v>59.3</v>
@@ -4331,13 +4324,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B261" s="12">
         <v>2018</v>
       </c>
-      <c r="C261" s="18" t="s">
-        <v>35</v>
+      <c r="C261" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D261" s="10">
         <v>58.1</v>
@@ -4345,13 +4338,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B262" s="12">
         <v>2018</v>
       </c>
-      <c r="C262" s="18" t="s">
-        <v>35</v>
+      <c r="C262" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D262" s="10">
         <v>38</v>
@@ -4359,13 +4352,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B263" s="12">
         <v>2018</v>
       </c>
-      <c r="C263" s="18" t="s">
-        <v>35</v>
+      <c r="C263" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D263" s="10">
         <v>34.5</v>
@@ -4373,13 +4366,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B264" s="12">
         <v>2018</v>
       </c>
-      <c r="C264" s="18" t="s">
-        <v>35</v>
+      <c r="C264" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D264" s="10">
         <v>42.6</v>
@@ -4387,13 +4380,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B265" s="12">
         <v>2018</v>
       </c>
-      <c r="C265" s="18" t="s">
-        <v>35</v>
+      <c r="C265" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D265" s="10">
         <v>52.3</v>
@@ -4401,13 +4394,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B266" s="12">
         <v>2018</v>
       </c>
-      <c r="C266" s="18" t="s">
-        <v>35</v>
+      <c r="C266" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D266" s="10">
         <v>34.200000000000003</v>
@@ -4415,13 +4408,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B267" s="12">
         <v>2018</v>
       </c>
-      <c r="C267" s="18" t="s">
-        <v>35</v>
+      <c r="C267" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D267" s="10">
         <v>54.7</v>
@@ -4429,13 +4422,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B268" s="12">
         <v>2018</v>
       </c>
-      <c r="C268" s="18" t="s">
-        <v>35</v>
+      <c r="C268" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D268" s="10">
         <v>61.1</v>
@@ -4443,13 +4436,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B269" s="12">
         <v>2018</v>
       </c>
-      <c r="C269" s="18" t="s">
-        <v>35</v>
+      <c r="C269" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D269" s="10">
         <v>50.9</v>
@@ -4457,13 +4450,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B270" s="12">
         <v>2018</v>
       </c>
-      <c r="C270" s="18" t="s">
-        <v>35</v>
+      <c r="C270" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D270" s="10">
         <v>34.4</v>
@@ -4471,13 +4464,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B271" s="12">
         <v>2018</v>
       </c>
-      <c r="C271" s="18" t="s">
-        <v>35</v>
+      <c r="C271" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D271" s="10">
         <v>40.9</v>
@@ -4485,13 +4478,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B272" s="12">
         <v>2018</v>
       </c>
-      <c r="C272" s="18" t="s">
-        <v>35</v>
+      <c r="C272" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D272" s="10">
         <v>38.6</v>
@@ -4499,13 +4492,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B273" s="12">
         <v>2018</v>
       </c>
-      <c r="C273" s="18" t="s">
-        <v>35</v>
+      <c r="C273" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D273" s="10">
         <v>59.3</v>
@@ -4513,13 +4506,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B274" s="12">
         <v>2018</v>
       </c>
-      <c r="C274" s="18" t="s">
-        <v>35</v>
+      <c r="C274" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D274" s="10">
         <v>27.6</v>
@@ -4527,13 +4520,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B275" s="12">
         <v>2018</v>
       </c>
-      <c r="C275" s="18" t="s">
-        <v>35</v>
+      <c r="C275" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D275" s="10">
         <v>58.2</v>
@@ -4541,13 +4534,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B276" s="12">
         <v>2018</v>
       </c>
-      <c r="C276" s="18" t="s">
-        <v>35</v>
+      <c r="C276" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D276" s="10">
         <v>57.1</v>
@@ -4555,13 +4548,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B277" s="12">
         <v>2018</v>
       </c>
-      <c r="C277" s="18" t="s">
-        <v>35</v>
+      <c r="C277" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D277" s="10">
         <v>42</v>
@@ -4569,13 +4562,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B278" s="12">
         <v>2018</v>
       </c>
-      <c r="C278" s="18" t="s">
-        <v>35</v>
+      <c r="C278" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D278" s="10">
         <v>54.9</v>
@@ -4583,13 +4576,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B279" s="12">
         <v>2018</v>
       </c>
-      <c r="C279" s="18" t="s">
-        <v>35</v>
+      <c r="C279" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D279" s="10">
         <v>63.6</v>
@@ -4597,13 +4590,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B280" s="12">
         <v>2018</v>
       </c>
-      <c r="C280" s="18" t="s">
-        <v>35</v>
+      <c r="C280" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D280" s="10">
         <v>20.399999999999999</v>
@@ -4611,13 +4604,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B281" s="12">
         <v>2018</v>
       </c>
-      <c r="C281" s="18" t="s">
-        <v>35</v>
+      <c r="C281" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D281" s="10">
         <v>41</v>
@@ -4625,13 +4618,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B282" s="12">
         <v>2017</v>
       </c>
-      <c r="C282" s="18" t="s">
-        <v>35</v>
+      <c r="C282" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D282" s="10">
         <v>51</v>
@@ -4639,13 +4632,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B283" s="12">
         <v>2017</v>
       </c>
-      <c r="C283" s="18" t="s">
-        <v>35</v>
+      <c r="C283" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D283" s="10">
         <v>37.1</v>
@@ -4653,13 +4646,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B284" s="12">
         <v>2017</v>
       </c>
-      <c r="C284" s="18" t="s">
-        <v>35</v>
+      <c r="C284" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D284" s="10">
         <v>54.1</v>
@@ -4667,13 +4660,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B285" s="12">
         <v>2017</v>
       </c>
-      <c r="C285" s="18" t="s">
-        <v>35</v>
+      <c r="C285" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D285" s="10">
         <v>45.5</v>
@@ -4681,13 +4674,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B286" s="12">
         <v>2017</v>
       </c>
-      <c r="C286" s="18" t="s">
-        <v>35</v>
+      <c r="C286" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D286" s="10">
         <v>39</v>
@@ -4695,13 +4688,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B287" s="12">
         <v>2017</v>
       </c>
-      <c r="C287" s="18" t="s">
-        <v>35</v>
+      <c r="C287" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D287" s="10">
         <v>66.5</v>
@@ -4709,13 +4702,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B288" s="12">
         <v>2017</v>
       </c>
-      <c r="C288" s="18" t="s">
-        <v>35</v>
+      <c r="C288" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D288" s="10">
         <v>55.4</v>
@@ -4723,13 +4716,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B289" s="12">
         <v>2017</v>
       </c>
-      <c r="C289" s="18" t="s">
-        <v>35</v>
+      <c r="C289" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D289" s="10">
         <v>41.1</v>
@@ -4737,13 +4730,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B290" s="12">
         <v>2017</v>
       </c>
-      <c r="C290" s="18" t="s">
-        <v>35</v>
+      <c r="C290" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D290" s="10">
         <v>48.4</v>
@@ -4751,13 +4744,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B291" s="12">
         <v>2017</v>
       </c>
-      <c r="C291" s="18" t="s">
-        <v>35</v>
+      <c r="C291" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D291" s="10">
         <v>43.6</v>
@@ -4765,13 +4758,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B292" s="12">
         <v>2017</v>
       </c>
-      <c r="C292" s="18" t="s">
-        <v>35</v>
+      <c r="C292" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D292" s="10">
         <v>24.9</v>
@@ -4779,13 +4772,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B293" s="12">
         <v>2017</v>
       </c>
-      <c r="C293" s="18" t="s">
-        <v>35</v>
+      <c r="C293" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D293" s="10">
         <v>45.2</v>
@@ -4793,13 +4786,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B294" s="12">
         <v>2017</v>
       </c>
-      <c r="C294" s="18" t="s">
-        <v>35</v>
+      <c r="C294" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D294" s="10">
         <v>43.3</v>
@@ -4807,13 +4800,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B295" s="12">
         <v>2017</v>
       </c>
-      <c r="C295" s="18" t="s">
-        <v>35</v>
+      <c r="C295" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D295" s="10">
         <v>59.6</v>
@@ -4821,13 +4814,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B296" s="12">
         <v>2017</v>
       </c>
-      <c r="C296" s="18" t="s">
-        <v>35</v>
+      <c r="C296" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D296" s="10">
         <v>58</v>
@@ -4835,13 +4828,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B297" s="12">
         <v>2017</v>
       </c>
-      <c r="C297" s="18" t="s">
-        <v>35</v>
+      <c r="C297" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D297" s="10">
         <v>37.799999999999997</v>
@@ -4849,13 +4842,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B298" s="12">
         <v>2017</v>
       </c>
-      <c r="C298" s="18" t="s">
-        <v>35</v>
+      <c r="C298" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D298" s="10">
         <v>35</v>
@@ -4863,13 +4856,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B299" s="12">
         <v>2017</v>
       </c>
-      <c r="C299" s="18" t="s">
-        <v>35</v>
+      <c r="C299" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D299" s="10">
         <v>42.6</v>
@@ -4877,13 +4870,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B300" s="12">
         <v>2017</v>
       </c>
-      <c r="C300" s="18" t="s">
-        <v>35</v>
+      <c r="C300" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D300" s="10">
         <v>53.2</v>
@@ -4891,13 +4884,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B301" s="12">
         <v>2017</v>
       </c>
-      <c r="C301" s="18" t="s">
-        <v>35</v>
+      <c r="C301" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D301" s="10">
         <v>35.4</v>
@@ -4905,13 +4898,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B302" s="12">
         <v>2017</v>
       </c>
-      <c r="C302" s="18" t="s">
-        <v>35</v>
+      <c r="C302" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D302" s="10">
         <v>54.8</v>
@@ -4919,13 +4912,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B303" s="12">
         <v>2017</v>
       </c>
-      <c r="C303" s="18" t="s">
-        <v>35</v>
+      <c r="C303" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D303" s="10">
         <v>60</v>
@@ -4933,13 +4926,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B304" s="12">
         <v>2017</v>
       </c>
-      <c r="C304" s="18" t="s">
-        <v>35</v>
+      <c r="C304" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D304" s="10">
         <v>50.1</v>
@@ -4947,13 +4940,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B305" s="12">
         <v>2017</v>
       </c>
-      <c r="C305" s="18" t="s">
-        <v>35</v>
+      <c r="C305" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D305" s="10">
         <v>33.700000000000003</v>
@@ -4961,13 +4954,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B306" s="12">
         <v>2017</v>
       </c>
-      <c r="C306" s="18" t="s">
-        <v>35</v>
+      <c r="C306" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D306" s="10">
         <v>41.3</v>
@@ -4975,13 +4968,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B307" s="12">
         <v>2017</v>
       </c>
-      <c r="C307" s="18" t="s">
-        <v>35</v>
+      <c r="C307" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D307" s="10">
         <v>38.299999999999997</v>
@@ -4989,13 +4982,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B308" s="12">
         <v>2017</v>
       </c>
-      <c r="C308" s="18" t="s">
-        <v>35</v>
+      <c r="C308" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D308" s="10">
         <v>59.8</v>
@@ -5003,13 +4996,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B309" s="12">
         <v>2017</v>
       </c>
-      <c r="C309" s="18" t="s">
-        <v>35</v>
+      <c r="C309" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D309" s="10">
         <v>26.6</v>
@@ -5017,13 +5010,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B310" s="12">
         <v>2017</v>
       </c>
-      <c r="C310" s="18" t="s">
-        <v>35</v>
+      <c r="C310" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D310" s="10">
         <v>57.7</v>
@@ -5031,13 +5024,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B311" s="12">
         <v>2017</v>
       </c>
-      <c r="C311" s="18" t="s">
-        <v>35</v>
+      <c r="C311" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D311" s="10">
         <v>57.2</v>
@@ -5045,13 +5038,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B312" s="12">
         <v>2017</v>
       </c>
-      <c r="C312" s="18" t="s">
-        <v>35</v>
+      <c r="C312" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D312" s="10">
         <v>42.9</v>
@@ -5059,13 +5052,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B313" s="12">
         <v>2017</v>
       </c>
-      <c r="C313" s="18" t="s">
-        <v>35</v>
+      <c r="C313" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D313" s="10">
         <v>54.6</v>
@@ -5073,13 +5066,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B314" s="12">
         <v>2017</v>
       </c>
-      <c r="C314" s="18" t="s">
-        <v>35</v>
+      <c r="C314" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D314" s="10">
         <v>64.5</v>
@@ -5087,13 +5080,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B315" s="12">
         <v>2017</v>
       </c>
-      <c r="C315" s="18" t="s">
-        <v>35</v>
+      <c r="C315" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D315" s="10">
         <v>20</v>
@@ -5101,13 +5094,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B316" s="12">
         <v>2017</v>
       </c>
-      <c r="C316" s="18" t="s">
-        <v>35</v>
+      <c r="C316" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D316" s="10">
         <v>41.3</v>
@@ -5115,13 +5108,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B317" s="12">
         <v>2016</v>
       </c>
-      <c r="C317" s="18" t="s">
-        <v>35</v>
+      <c r="C317" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D317" s="10">
         <v>51.5</v>
@@ -5129,13 +5122,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B318" s="12">
         <v>2016</v>
       </c>
-      <c r="C318" s="18" t="s">
-        <v>35</v>
+      <c r="C318" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D318" s="10">
         <v>38.6</v>
@@ -5143,13 +5136,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B319" s="12">
         <v>2016</v>
       </c>
-      <c r="C319" s="18" t="s">
-        <v>35</v>
+      <c r="C319" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D319" s="10">
         <v>53.7</v>
@@ -5157,13 +5150,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B320" s="12">
         <v>2016</v>
       </c>
-      <c r="C320" s="18" t="s">
-        <v>35</v>
+      <c r="C320" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D320" s="10">
         <v>46.3</v>
@@ -5171,13 +5164,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B321" s="12">
         <v>2016</v>
       </c>
-      <c r="C321" s="18" t="s">
-        <v>35</v>
+      <c r="C321" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D321" s="10">
         <v>38.299999999999997</v>
@@ -5185,13 +5178,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B322" s="12">
         <v>2016</v>
       </c>
-      <c r="C322" s="18" t="s">
-        <v>35</v>
+      <c r="C322" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D322" s="10">
         <v>67.099999999999994</v>
@@ -5199,13 +5192,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B323" s="12">
         <v>2016</v>
       </c>
-      <c r="C323" s="18" t="s">
-        <v>35</v>
+      <c r="C323" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D323" s="10">
         <v>55.7</v>
@@ -5213,13 +5206,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B324" s="12">
         <v>2016</v>
       </c>
-      <c r="C324" s="18" t="s">
-        <v>35</v>
+      <c r="C324" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D324" s="10">
         <v>41.6</v>
@@ -5227,13 +5220,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B325" s="12">
         <v>2016</v>
       </c>
-      <c r="C325" s="18" t="s">
-        <v>35</v>
+      <c r="C325" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D325" s="10">
         <v>49.3</v>
@@ -5241,13 +5234,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B326" s="12">
         <v>2016</v>
       </c>
-      <c r="C326" s="18" t="s">
-        <v>35</v>
+      <c r="C326" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D326" s="10">
         <v>43.5</v>
@@ -5255,13 +5248,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B327" s="12">
         <v>2016</v>
       </c>
-      <c r="C327" s="18" t="s">
-        <v>35</v>
+      <c r="C327" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D327" s="10">
         <v>24.7</v>
@@ -5269,13 +5262,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B328" s="12">
         <v>2016</v>
       </c>
-      <c r="C328" s="18" t="s">
-        <v>35</v>
+      <c r="C328" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D328" s="10">
         <v>45.5</v>
@@ -5283,13 +5276,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B329" s="12">
         <v>2016</v>
       </c>
-      <c r="C329" s="18" t="s">
-        <v>35</v>
+      <c r="C329" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D329" s="10">
         <v>43.6</v>
@@ -5297,13 +5290,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B330" s="12">
         <v>2016</v>
       </c>
-      <c r="C330" s="18" t="s">
-        <v>35</v>
+      <c r="C330" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D330" s="10">
         <v>59.4</v>
@@ -5311,13 +5304,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B331" s="12">
         <v>2016</v>
       </c>
-      <c r="C331" s="18" t="s">
-        <v>35</v>
+      <c r="C331" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D331" s="10">
         <v>57.6</v>
@@ -5325,13 +5318,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B332" s="12">
         <v>2016</v>
       </c>
-      <c r="C332" s="18" t="s">
-        <v>35</v>
+      <c r="C332" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D332" s="10">
         <v>37.6</v>
@@ -5339,13 +5332,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B333" s="12">
         <v>2016</v>
       </c>
-      <c r="C333" s="18" t="s">
-        <v>35</v>
+      <c r="C333" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D333" s="10">
         <v>37.4</v>
@@ -5353,13 +5346,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B334" s="12">
         <v>2016</v>
       </c>
-      <c r="C334" s="18" t="s">
-        <v>35</v>
+      <c r="C334" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D334" s="10">
         <v>42.7</v>
@@ -5367,13 +5360,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B335" s="12">
         <v>2016</v>
       </c>
-      <c r="C335" s="18" t="s">
-        <v>35</v>
+      <c r="C335" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D335" s="10">
         <v>53.5</v>
@@ -5381,13 +5374,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B336" s="12">
         <v>2016</v>
       </c>
-      <c r="C336" s="18" t="s">
-        <v>35</v>
+      <c r="C336" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D336" s="10">
         <v>35.4</v>
@@ -5395,13 +5388,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B337" s="12">
         <v>2016</v>
       </c>
-      <c r="C337" s="18" t="s">
-        <v>35</v>
+      <c r="C337" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D337" s="10">
         <v>55.6</v>
@@ -5409,13 +5402,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B338" s="12">
         <v>2016</v>
       </c>
-      <c r="C338" s="18" t="s">
-        <v>35</v>
+      <c r="C338" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D338" s="10">
         <v>59.2</v>
@@ -5423,13 +5416,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B339" s="12">
         <v>2016</v>
       </c>
-      <c r="C339" s="18" t="s">
-        <v>35</v>
+      <c r="C339" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D339" s="10">
         <v>48.6</v>
@@ -5437,13 +5430,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B340" s="12">
         <v>2016</v>
       </c>
-      <c r="C340" s="18" t="s">
-        <v>35</v>
+      <c r="C340" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D340" s="10">
         <v>33.299999999999997</v>
@@ -5451,13 +5444,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B341" s="12">
         <v>2016</v>
       </c>
-      <c r="C341" s="18" t="s">
-        <v>35</v>
+      <c r="C341" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D341" s="10">
         <v>41.1</v>
@@ -5465,13 +5458,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B342" s="12">
         <v>2016</v>
       </c>
-      <c r="C342" s="18" t="s">
-        <v>35</v>
+      <c r="C342" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D342" s="10">
         <v>38.299999999999997</v>
@@ -5479,13 +5472,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B343" s="12">
         <v>2016</v>
       </c>
-      <c r="C343" s="18" t="s">
-        <v>35</v>
+      <c r="C343" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D343" s="10">
         <v>60.2</v>
@@ -5493,13 +5486,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B344" s="12">
         <v>2016</v>
       </c>
-      <c r="C344" s="18" t="s">
-        <v>35</v>
+      <c r="C344" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D344" s="10">
         <v>25.6</v>
@@ -5507,13 +5500,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B345" s="12">
         <v>2016</v>
       </c>
-      <c r="C345" s="18" t="s">
-        <v>35</v>
+      <c r="C345" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D345" s="10">
         <v>56.9</v>
@@ -5521,13 +5514,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B346" s="12">
         <v>2016</v>
       </c>
-      <c r="C346" s="18" t="s">
-        <v>35</v>
+      <c r="C346" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D346" s="10">
         <v>57.3</v>
@@ -5535,13 +5528,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B347" s="12">
         <v>2016</v>
       </c>
-      <c r="C347" s="18" t="s">
-        <v>35</v>
+      <c r="C347" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D347" s="10">
         <v>43.6</v>
@@ -5549,13 +5542,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B348" s="12">
         <v>2016</v>
       </c>
-      <c r="C348" s="18" t="s">
-        <v>35</v>
+      <c r="C348" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D348" s="10">
         <v>55.6</v>
@@ -5563,13 +5556,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B349" s="12">
         <v>2016</v>
       </c>
-      <c r="C349" s="18" t="s">
-        <v>35</v>
+      <c r="C349" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D349" s="10">
         <v>66</v>
@@ -5577,13 +5570,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B350" s="12">
         <v>2016</v>
       </c>
-      <c r="C350" s="18" t="s">
-        <v>35</v>
+      <c r="C350" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D350" s="10">
         <v>19.600000000000001</v>
@@ -5591,13 +5584,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B351" s="12">
         <v>2016</v>
       </c>
-      <c r="C351" s="18" t="s">
-        <v>35</v>
+      <c r="C351" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D351" s="10">
         <v>41.2</v>
@@ -5605,13 +5598,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B352" s="12">
         <v>2020</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D352" s="10">
         <v>18.7</v>
@@ -5619,13 +5612,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B353" s="12">
         <v>2020</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D353" s="10">
         <v>25</v>
@@ -5633,13 +5626,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B354" s="12">
         <v>2020</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D354" s="10">
         <v>21.5</v>
@@ -5647,13 +5640,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B355" s="12">
         <v>2020</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D355" s="10">
         <v>16.2</v>
@@ -5661,13 +5654,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B356" s="12">
         <v>2020</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D356" s="10">
         <v>21</v>
@@ -5675,13 +5668,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B357" s="12">
         <v>2020</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D357" s="10">
         <v>12.3</v>
@@ -5689,13 +5682,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B358" s="12">
         <v>2020</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D358" s="10">
         <v>20.100000000000001</v>
@@ -5703,13 +5696,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B359" s="12">
         <v>2020</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D359" s="10">
         <v>25.9</v>
@@ -5717,13 +5710,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B360" s="12">
         <v>2020</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D360" s="10">
         <v>15.4</v>
@@ -5731,13 +5724,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B361" s="12">
         <v>2020</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D361" s="10">
         <v>24.3</v>
@@ -5745,13 +5738,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B362" s="12">
         <v>2020</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D362" s="10">
         <v>38.200000000000003</v>
@@ -5759,13 +5752,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B363" s="12">
         <v>2020</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D363" s="10">
         <v>15.9</v>
@@ -5773,13 +5766,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B364" s="12">
         <v>2020</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D364" s="10">
         <v>22.3</v>
@@ -5787,13 +5780,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B365" s="12">
         <v>2020</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D365" s="10">
         <v>17.5</v>
@@ -5801,13 +5794,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B366" s="12">
         <v>2020</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D366" s="10">
         <v>19.7</v>
@@ -5815,13 +5808,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B367" s="12">
         <v>2020</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D367" s="10">
         <v>19.600000000000001</v>
@@ -5829,13 +5822,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B368" s="12">
         <v>2020</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D368" s="10">
         <v>27.6</v>
@@ -5843,13 +5836,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B369" s="12">
         <v>2020</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D369" s="10">
         <v>39</v>
@@ -5857,13 +5850,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B370" s="12">
         <v>2020</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D370" s="10">
         <v>10.8</v>
@@ -5871,13 +5864,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B371" s="12">
         <v>2020</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D371" s="10">
         <v>27.2</v>
@@ -5885,13 +5878,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B372" s="12">
         <v>2020</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D372" s="10">
         <v>14.6</v>
@@ -5899,13 +5892,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B373" s="12">
         <v>2020</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D373" s="10">
         <v>17.899999999999999</v>
@@ -5913,13 +5906,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B374" s="12">
         <v>2020</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D374" s="10">
         <v>29.7</v>
@@ -5927,13 +5920,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B375" s="12">
         <v>2020</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D375" s="10">
         <v>37</v>
@@ -5941,13 +5934,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B376" s="12">
         <v>2020</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D376" s="10">
         <v>24</v>
@@ -5955,13 +5948,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B377" s="12">
         <v>2020</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D377" s="10">
         <v>23.5</v>
@@ -5969,13 +5962,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B378" s="12">
         <v>2020</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D378" s="10">
         <v>12.9</v>
@@ -5983,13 +5976,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B379" s="12">
         <v>2020</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D379" s="10">
         <v>44.5</v>
@@ -5997,13 +5990,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B380" s="12">
         <v>2020</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D380" s="10">
         <v>23.7</v>
@@ -6011,13 +6004,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B381" s="12">
         <v>2020</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D381" s="10">
         <v>21.3</v>
@@ -6025,13 +6018,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B382" s="12">
         <v>2020</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D382" s="10">
         <v>20.7</v>
@@ -6039,13 +6032,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B383" s="12">
         <v>2020</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D383" s="10">
         <v>14.5</v>
@@ -6053,13 +6046,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B384" s="12">
         <v>2020</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D384" s="10">
         <v>13.5</v>
@@ -6067,13 +6060,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B385" s="12">
         <v>2020</v>
       </c>
       <c r="C385" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D385" s="10">
         <v>58.7</v>
@@ -6081,25 +6074,25 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B386" s="12">
         <v>2020</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D386" s="9"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B387" s="12">
         <v>2019</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D387" s="10">
         <v>18.7</v>
@@ -6107,13 +6100,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B388" s="12">
         <v>2019</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D388" s="10">
         <v>25.9</v>
@@ -6121,13 +6114,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B389" s="12">
         <v>2019</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D389" s="10">
         <v>21.9</v>
@@ -6135,13 +6128,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B390" s="12">
         <v>2019</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D390" s="10">
         <v>16.5</v>
@@ -6149,13 +6142,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B391" s="12">
         <v>2019</v>
       </c>
       <c r="C391" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D391" s="10">
         <v>21.5</v>
@@ -6163,13 +6156,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B392" s="12">
         <v>2019</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D392" s="10">
         <v>12.3</v>
@@ -6177,13 +6170,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B393" s="12">
         <v>2019</v>
       </c>
       <c r="C393" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D393" s="10">
         <v>19.5</v>
@@ -6191,13 +6184,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B394" s="12">
         <v>2019</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D394" s="10">
         <v>26</v>
@@ -6205,13 +6198,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B395" s="12">
         <v>2019</v>
       </c>
       <c r="C395" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D395" s="10">
         <v>15.8</v>
@@ -6219,13 +6212,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B396" s="12">
         <v>2019</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D396" s="10">
         <v>25.9</v>
@@ -6233,13 +6226,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B397" s="12">
         <v>2019</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D397" s="10">
         <v>39.6</v>
@@ -6247,13 +6240,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B398" s="12">
         <v>2019</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D398" s="10">
         <v>16.899999999999999</v>
@@ -6261,13 +6254,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B399" s="12">
         <v>2019</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D399" s="10">
         <v>23.4</v>
@@ -6275,13 +6268,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B400" s="12">
         <v>2019</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D400" s="10">
         <v>18.100000000000001</v>
@@ -6289,13 +6282,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B401" s="12">
         <v>2019</v>
       </c>
       <c r="C401" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D401" s="10">
         <v>20</v>
@@ -6303,13 +6296,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B402" s="12">
         <v>2019</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D402" s="10">
         <v>21</v>
@@ -6317,13 +6310,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B403" s="12">
         <v>2019</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D403" s="10">
         <v>27.6</v>
@@ -6331,13 +6324,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B404" s="12">
         <v>2019</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D404" s="10">
         <v>39.799999999999997</v>
@@ -6345,13 +6338,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B405" s="12">
         <v>2019</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D405" s="10">
         <v>11.1</v>
@@ -6359,13 +6352,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B406" s="12">
         <v>2019</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D406" s="10">
         <v>26.7</v>
@@ -6373,13 +6366,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B407" s="12">
         <v>2019</v>
       </c>
       <c r="C407" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D407" s="10">
         <v>14.9</v>
@@ -6387,13 +6380,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B408" s="12">
         <v>2019</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D408" s="10">
         <v>17.399999999999999</v>
@@ -6401,13 +6394,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B409" s="12">
         <v>2019</v>
       </c>
       <c r="C409" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D409" s="10">
         <v>30.6</v>
@@ -6415,13 +6408,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B410" s="12">
         <v>2019</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D410" s="10">
         <v>38.799999999999997</v>
@@ -6429,13 +6422,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B411" s="12">
         <v>2019</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D411" s="10">
         <v>25.5</v>
@@ -6443,13 +6436,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B412" s="12">
         <v>2019</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D412" s="10">
         <v>23.7</v>
@@ -6457,13 +6450,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B413" s="12">
         <v>2019</v>
       </c>
       <c r="C413" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D413" s="10">
         <v>13.3</v>
@@ -6471,13 +6464,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B414" s="12">
         <v>2019</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D414" s="10">
         <v>47.6</v>
@@ -6485,13 +6478,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B415" s="12">
         <v>2019</v>
       </c>
       <c r="C415" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D415" s="10">
         <v>25.1</v>
@@ -6499,13 +6492,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B416" s="12">
         <v>2019</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D416" s="10">
         <v>22.1</v>
@@ -6513,13 +6506,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B417" s="12">
         <v>2019</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D417" s="10">
         <v>20.8</v>
@@ -6527,13 +6520,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B418" s="12">
         <v>2019</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D418" s="10">
         <v>15.8</v>
@@ -6541,13 +6534,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B419" s="12">
         <v>2019</v>
       </c>
       <c r="C419" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D419" s="10">
         <v>14.5</v>
@@ -6555,13 +6548,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B420" s="12">
         <v>2019</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D420" s="10">
         <v>60.5</v>
@@ -6569,13 +6562,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B421" s="12">
         <v>2019</v>
       </c>
       <c r="C421" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D421" s="10">
         <v>19.100000000000001</v>
@@ -6583,13 +6576,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B422" s="12">
         <v>2018</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D422" s="10">
         <v>18.899999999999999</v>
@@ -6597,13 +6590,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B423" s="12">
         <v>2018</v>
       </c>
       <c r="C423" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D423" s="10">
         <v>26.3</v>
@@ -6611,13 +6604,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B424" s="12">
         <v>2018</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D424" s="10">
         <v>21.5</v>
@@ -6625,13 +6618,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B425" s="12">
         <v>2018</v>
       </c>
       <c r="C425" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D425" s="10">
         <v>17.2</v>
@@ -6639,13 +6632,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B426" s="12">
         <v>2018</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D426" s="10">
         <v>21.9</v>
@@ -6653,13 +6646,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B427" s="12">
         <v>2018</v>
       </c>
       <c r="C427" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D427" s="10">
         <v>12.1</v>
@@ -6667,13 +6660,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B428" s="12">
         <v>2018</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D428" s="10">
         <v>19.600000000000001</v>
@@ -6681,13 +6674,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B429" s="12">
         <v>2018</v>
       </c>
       <c r="C429" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D429" s="10">
         <v>26.5</v>
@@ -6695,13 +6688,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B430" s="12">
         <v>2018</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D430" s="10">
         <v>16.8</v>
@@ -6709,13 +6702,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B431" s="12">
         <v>2018</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D431" s="10">
         <v>28.7</v>
@@ -6723,13 +6716,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B432" s="12">
         <v>2018</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D432" s="10">
         <v>40.799999999999997</v>
@@ -6737,13 +6730,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B433" s="12">
         <v>2018</v>
       </c>
       <c r="C433" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D433" s="10">
         <v>17.7</v>
@@ -6751,13 +6744,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B434" s="12">
         <v>2018</v>
       </c>
       <c r="C434" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D434" s="10">
         <v>24.4</v>
@@ -6765,13 +6758,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B435" s="12">
         <v>2018</v>
       </c>
       <c r="C435" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D435" s="10">
         <v>18.7</v>
@@ -6779,13 +6772,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B436" s="12">
         <v>2018</v>
       </c>
       <c r="C436" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D436" s="10">
         <v>20.2</v>
@@ -6793,13 +6786,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B437" s="12">
         <v>2018</v>
       </c>
       <c r="C437" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D437" s="10">
         <v>21.5</v>
@@ -6807,13 +6800,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B438" s="12">
         <v>2018</v>
       </c>
       <c r="C438" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D438" s="10">
         <v>29</v>
@@ -6821,13 +6814,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B439" s="12">
         <v>2018</v>
       </c>
       <c r="C439" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D439" s="10">
         <v>40.299999999999997</v>
@@ -6835,13 +6828,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B440" s="12">
         <v>2018</v>
       </c>
       <c r="C440" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D440" s="10">
         <v>11.7</v>
@@ -6849,13 +6842,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B441" s="12">
         <v>2018</v>
       </c>
       <c r="C441" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D441" s="10">
         <v>27.6</v>
@@ -6863,13 +6856,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B442" s="12">
         <v>2018</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D442" s="10">
         <v>15.3</v>
@@ -6877,13 +6870,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B443" s="12">
         <v>2018</v>
       </c>
       <c r="C443" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D443" s="10">
         <v>18.600000000000001</v>
@@ -6891,13 +6884,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B444" s="12">
         <v>2018</v>
       </c>
       <c r="C444" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D444" s="10">
         <v>31.6</v>
@@ -6905,13 +6898,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B445" s="12">
         <v>2018</v>
       </c>
       <c r="C445" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D445" s="10">
         <v>41</v>
@@ -6919,13 +6912,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B446" s="12">
         <v>2018</v>
       </c>
       <c r="C446" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D446" s="10">
         <v>26</v>
@@ -6933,13 +6926,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B447" s="12">
         <v>2018</v>
       </c>
       <c r="C447" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D447" s="10">
         <v>23.9</v>
@@ -6947,13 +6940,13 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B448" s="12">
         <v>2018</v>
       </c>
       <c r="C448" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D448" s="10">
         <v>13.5</v>
@@ -6961,13 +6954,13 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B449" s="12">
         <v>2018</v>
       </c>
       <c r="C449" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D449" s="10">
         <v>49.8</v>
@@ -6975,13 +6968,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B450" s="12">
         <v>2018</v>
       </c>
       <c r="C450" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D450" s="10">
         <v>26.3</v>
@@ -6989,13 +6982,13 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B451" s="12">
         <v>2018</v>
       </c>
       <c r="C451" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D451" s="10">
         <v>22.5</v>
@@ -7003,13 +6996,13 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B452" s="12">
         <v>2018</v>
       </c>
       <c r="C452" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D452" s="10">
         <v>20.9</v>
@@ -7017,13 +7010,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B453" s="12">
         <v>2018</v>
       </c>
       <c r="C453" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D453" s="10">
         <v>16.399999999999999</v>
@@ -7031,13 +7024,13 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B454" s="12">
         <v>2018</v>
       </c>
       <c r="C454" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D454" s="10">
         <v>14.4</v>
@@ -7045,13 +7038,13 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B455" s="12">
         <v>2018</v>
       </c>
       <c r="C455" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D455" s="10">
         <v>62.3</v>
@@ -7059,13 +7052,13 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B456" s="12">
         <v>2018</v>
       </c>
       <c r="C456" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D456" s="10">
         <v>19.7</v>
@@ -7073,13 +7066,13 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B457" s="12">
         <v>2017</v>
       </c>
       <c r="C457" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D457" s="10">
         <v>19.3</v>
@@ -7087,13 +7080,13 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B458" s="12">
         <v>2017</v>
       </c>
       <c r="C458" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D458" s="10">
         <v>27.2</v>
@@ -7101,13 +7094,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B459" s="12">
         <v>2017</v>
       </c>
       <c r="C459" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D459" s="10">
         <v>21.4</v>
@@ -7115,13 +7108,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B460" s="12">
         <v>2017</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D460" s="10">
         <v>17.8</v>
@@ -7129,13 +7122,13 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B461" s="12">
         <v>2017</v>
       </c>
       <c r="C461" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D461" s="10">
         <v>22.9</v>
@@ -7143,13 +7136,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B462" s="12">
         <v>2017</v>
       </c>
       <c r="C462" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D462" s="10">
         <v>12.1</v>
@@ -7157,13 +7150,13 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B463" s="12">
         <v>2017</v>
       </c>
       <c r="C463" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D463" s="10">
         <v>19.8</v>
@@ -7171,13 +7164,13 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B464" s="12">
         <v>2017</v>
       </c>
       <c r="C464" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D464" s="10">
         <v>26.7</v>
@@ -7185,13 +7178,13 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B465" s="12">
         <v>2017</v>
       </c>
       <c r="C465" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D465" s="10">
         <v>16.8</v>
@@ -7199,13 +7192,13 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B466" s="12">
         <v>2017</v>
       </c>
       <c r="C466" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D466" s="10">
         <v>29.3</v>
@@ -7213,13 +7206,13 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B467" s="12">
         <v>2017</v>
       </c>
       <c r="C467" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D467" s="10">
         <v>41.8</v>
@@ -7227,13 +7220,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B468" s="12">
         <v>2017</v>
       </c>
       <c r="C468" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D468" s="10">
         <v>18.399999999999999</v>
@@ -7241,13 +7234,13 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B469" s="12">
         <v>2017</v>
       </c>
       <c r="C469" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D469" s="10">
         <v>25.2</v>
@@ -7255,13 +7248,13 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B470" s="12">
         <v>2017</v>
       </c>
       <c r="C470" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D470" s="10">
         <v>19.899999999999999</v>
@@ -7269,13 +7262,13 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B471" s="12">
         <v>2017</v>
       </c>
       <c r="C471" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D471" s="10">
         <v>21.1</v>
@@ -7283,13 +7276,13 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B472" s="12">
         <v>2017</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D472" s="10">
         <v>21.8</v>
@@ -7297,13 +7290,13 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B473" s="12">
         <v>2017</v>
       </c>
       <c r="C473" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D473" s="10">
         <v>29.7</v>
@@ -7311,13 +7304,13 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B474" s="12">
         <v>2017</v>
       </c>
       <c r="C474" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D474" s="10">
         <v>40.9</v>
@@ -7325,13 +7318,13 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B475" s="12">
         <v>2017</v>
       </c>
       <c r="C475" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D475" s="10">
         <v>12</v>
@@ -7339,13 +7332,13 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B476" s="12">
         <v>2017</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D476" s="10">
         <v>30.5</v>
@@ -7353,13 +7346,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B477" s="12">
         <v>2017</v>
       </c>
       <c r="C477" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D477" s="10">
         <v>15.2</v>
@@ -7367,13 +7360,13 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B478" s="12">
         <v>2017</v>
       </c>
       <c r="C478" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D478" s="10">
         <v>19.5</v>
@@ -7381,13 +7374,13 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B479" s="12">
         <v>2017</v>
       </c>
       <c r="C479" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D479" s="10">
         <v>32</v>
@@ -7395,13 +7388,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B480" s="12">
         <v>2017</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D480" s="10">
         <v>44.2</v>
@@ -7409,13 +7402,13 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B481" s="12">
         <v>2017</v>
       </c>
       <c r="C481" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D481" s="10">
         <v>26.6</v>
@@ -7423,13 +7416,13 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B482" s="12">
         <v>2017</v>
       </c>
       <c r="C482" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D482" s="10">
         <v>24.9</v>
@@ -7437,13 +7430,13 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B483" s="12">
         <v>2017</v>
       </c>
       <c r="C483" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D483" s="10">
         <v>13.9</v>
@@ -7451,13 +7444,13 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B484" s="12">
         <v>2017</v>
       </c>
       <c r="C484" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D484" s="10">
         <v>51.7</v>
@@ -7465,13 +7458,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B485" s="12">
         <v>2017</v>
       </c>
       <c r="C485" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D485" s="10">
         <v>27</v>
@@ -7479,13 +7472,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B486" s="12">
         <v>2017</v>
       </c>
       <c r="C486" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D486" s="10">
         <v>23</v>
@@ -7493,13 +7486,13 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B487" s="12">
         <v>2017</v>
       </c>
       <c r="C487" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D487" s="10">
         <v>21.1</v>
@@ -7507,13 +7500,13 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B488" s="12">
         <v>2017</v>
       </c>
       <c r="C488" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D488" s="10">
         <v>16.7</v>
@@ -7521,13 +7514,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B489" s="12">
         <v>2017</v>
       </c>
       <c r="C489" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D489" s="10">
         <v>14.8</v>
@@ -7535,13 +7528,13 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B490" s="12">
         <v>2017</v>
       </c>
       <c r="C490" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D490" s="10">
         <v>63.4</v>
@@ -7549,13 +7542,13 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B491" s="12">
         <v>2017</v>
       </c>
       <c r="C491" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D491" s="10">
         <v>20</v>
@@ -7563,13 +7556,13 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B492" s="12">
         <v>2016</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D492" s="10">
         <v>19.600000000000001</v>
@@ -7577,13 +7570,13 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B493" s="12">
         <v>2016</v>
       </c>
       <c r="C493" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D493" s="10">
         <v>28.2</v>
@@ -7591,13 +7584,13 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B494" s="12">
         <v>2016</v>
       </c>
       <c r="C494" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D494" s="10">
         <v>21.9</v>
@@ -7605,13 +7598,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B495" s="12">
         <v>2016</v>
       </c>
       <c r="C495" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D495" s="10">
         <v>18.2</v>
@@ -7619,13 +7612,13 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B496" s="12">
         <v>2016</v>
       </c>
       <c r="C496" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D496" s="10">
         <v>24</v>
@@ -7633,13 +7626,13 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B497" s="12">
         <v>2016</v>
       </c>
       <c r="C497" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D497" s="10">
         <v>12.4</v>
@@ -7647,13 +7640,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B498" s="12">
         <v>2016</v>
       </c>
       <c r="C498" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D498" s="10">
         <v>19.8</v>
@@ -7661,13 +7654,13 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B499" s="12">
         <v>2016</v>
       </c>
       <c r="C499" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D499" s="10">
         <v>27.3</v>
@@ -7675,13 +7668,13 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B500" s="12">
         <v>2016</v>
       </c>
       <c r="C500" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D500" s="10">
         <v>16.7</v>
@@ -7689,13 +7682,13 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B501" s="12">
         <v>2016</v>
       </c>
       <c r="C501" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D501" s="10">
         <v>30</v>
@@ -7703,13 +7696,13 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B502" s="12">
         <v>2016</v>
       </c>
       <c r="C502" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D502" s="10">
         <v>42.6</v>
@@ -7717,13 +7710,13 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B503" s="12">
         <v>2016</v>
       </c>
       <c r="C503" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D503" s="10">
         <v>18.600000000000001</v>
@@ -7731,13 +7724,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B504" s="12">
         <v>2016</v>
       </c>
       <c r="C504" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D504" s="10">
         <v>25.5</v>
@@ -7745,13 +7738,13 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B505" s="12">
         <v>2016</v>
       </c>
       <c r="C505" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D505" s="10">
         <v>20.6</v>
@@ -7759,13 +7752,13 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B506" s="12">
         <v>2016</v>
       </c>
       <c r="C506" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D506" s="10">
         <v>21.8</v>
@@ -7773,13 +7766,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B507" s="12">
         <v>2016</v>
       </c>
       <c r="C507" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D507" s="10">
         <v>23</v>
@@ -7787,13 +7780,13 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B508" s="12">
         <v>2016</v>
       </c>
       <c r="C508" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D508" s="10">
         <v>29.2</v>
@@ -7801,13 +7794,13 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B509" s="12">
         <v>2016</v>
       </c>
       <c r="C509" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D509" s="10">
         <v>41.6</v>
@@ -7815,13 +7808,13 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B510" s="12">
         <v>2016</v>
       </c>
       <c r="C510" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D510" s="10">
         <v>12.4</v>
@@ -7829,13 +7822,13 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B511" s="12">
         <v>2016</v>
       </c>
       <c r="C511" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D511" s="10">
         <v>28.2</v>
@@ -7843,13 +7836,13 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B512" s="12">
         <v>2016</v>
       </c>
       <c r="C512" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D512" s="10">
         <v>14.9</v>
@@ -7857,13 +7850,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B513" s="12">
         <v>2016</v>
       </c>
       <c r="C513" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D513" s="10">
         <v>19.600000000000001</v>
@@ -7871,13 +7864,13 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B514" s="12">
         <v>2016</v>
       </c>
       <c r="C514" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D514" s="10">
         <v>33.4</v>
@@ -7885,13 +7878,13 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B515" s="12">
         <v>2016</v>
       </c>
       <c r="C515" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D515" s="10">
         <v>46.3</v>
@@ -7899,13 +7892,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B516" s="12">
         <v>2016</v>
       </c>
       <c r="C516" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D516" s="10">
         <v>27.9</v>
@@ -7913,13 +7906,13 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B517" s="12">
         <v>2016</v>
       </c>
       <c r="C517" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D517" s="10">
         <v>24.9</v>
@@ -7927,13 +7920,13 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B518" s="12">
         <v>2016</v>
       </c>
       <c r="C518" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D518" s="10">
         <v>14.6</v>
@@ -7941,13 +7934,13 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B519" s="12">
         <v>2016</v>
       </c>
       <c r="C519" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D519" s="10">
         <v>52.9</v>
@@ -7955,13 +7948,13 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B520" s="12">
         <v>2016</v>
       </c>
       <c r="C520" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D520" s="10">
         <v>28</v>
@@ -7969,13 +7962,13 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B521" s="12">
         <v>2016</v>
       </c>
       <c r="C521" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D521" s="10">
         <v>23.3</v>
@@ -7983,13 +7976,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B522" s="12">
         <v>2016</v>
       </c>
       <c r="C522" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D522" s="10">
         <v>21.1</v>
@@ -7997,13 +7990,13 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B523" s="12">
         <v>2016</v>
       </c>
       <c r="C523" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D523" s="10">
         <v>17.2</v>
@@ -8011,13 +8004,13 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B524" s="12">
         <v>2016</v>
       </c>
       <c r="C524" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D524" s="10">
         <v>14.3</v>
@@ -8025,13 +8018,13 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B525" s="12">
         <v>2016</v>
       </c>
       <c r="C525" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D525" s="10">
         <v>64.400000000000006</v>
@@ -8039,19 +8032,20 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B526" s="12">
         <v>2016</v>
       </c>
       <c r="C526" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D526" s="10">
         <v>20.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
